--- a/data/locations/BC.xlsx
+++ b/data/locations/BC.xlsx
@@ -793,6 +793,11 @@
           <t>ACTIVE</t>
         </is>
       </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>57 11 28.0 N 124 54 04.0 W</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr">
         <is>
           <t>BC</t>
@@ -813,9 +818,22 @@
           <t>PRINCE GEORGE</t>
         </is>
       </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>THEO MLYNOWSKI</t>
+        </is>
+      </c>
       <c r="O3" t="inlineStr">
         <is>
           <t>F-P-P(BCH)</t>
+        </is>
+      </c>
+      <c r="V3" s="1" t="n">
+        <v>55613.99930555555</v>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>SEE BELOW</t>
         </is>
       </c>
     </row>
@@ -851,6 +869,11 @@
           <t>ACTIVE</t>
         </is>
       </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>49 22 11.7 N 124 59 02.8 W</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr">
         <is>
           <t>BC</t>
@@ -871,9 +894,22 @@
           <t>NANAIMO</t>
         </is>
       </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>MARK SCOTT</t>
+        </is>
+      </c>
       <c r="O4" t="inlineStr">
         <is>
           <t>P(BCH)</t>
+        </is>
+      </c>
+      <c r="V4" s="1" t="n">
+        <v>44651.49930555555</v>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>SEE BELOW</t>
         </is>
       </c>
     </row>
@@ -909,6 +945,11 @@
           <t>ACTIVE</t>
         </is>
       </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>49 12 27.4 N 119 59 36.6 W</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr">
         <is>
           <t>BC</t>
@@ -929,9 +970,24 @@
           <t>VERNON</t>
         </is>
       </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>SHAYNE DOERKSEN</t>
+        </is>
+      </c>
       <c r="O5" t="inlineStr">
         <is>
           <t>F-P</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>No Expiry</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>SEE BELOW</t>
         </is>
       </c>
     </row>
@@ -967,6 +1023,11 @@
           <t>INACTIVE</t>
         </is>
       </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>59 35 43.3 N 133 48 51.9 W</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr">
         <is>
           <t>BC</t>
@@ -987,9 +1048,22 @@
           <t>WHITEHORSE</t>
         </is>
       </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>PAT MALTAIS</t>
+        </is>
+      </c>
       <c r="O6" t="inlineStr">
         <is>
           <t>F</t>
+        </is>
+      </c>
+      <c r="V6" s="1" t="n">
+        <v>50921</v>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>SEE BELOW</t>
         </is>
       </c>
     </row>
@@ -1025,6 +1099,11 @@
           <t>ACTIVE</t>
         </is>
       </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>52 21 36.3 N 126 00 21.1 W</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr">
         <is>
           <t>BC</t>
@@ -1045,9 +1124,22 @@
           <t>PRINCE GEORGE</t>
         </is>
       </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>BLAINE BOWE</t>
+        </is>
+      </c>
       <c r="O7" t="inlineStr">
         <is>
           <t>F-P</t>
+        </is>
+      </c>
+      <c r="V7" s="1" t="n">
+        <v>50919.99930555555</v>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>SEE BELOW</t>
         </is>
       </c>
     </row>
@@ -1083,6 +1175,11 @@
           <t>ACTIVE</t>
         </is>
       </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>56 16 42.4 N 120 41 59.5 W</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr">
         <is>
           <t>BC</t>
@@ -1103,9 +1200,39 @@
           <t>PRINCE GEORGE</t>
         </is>
       </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>ANDREW CLINE</t>
+        </is>
+      </c>
       <c r="O8" t="inlineStr">
         <is>
           <t>F-P(OTH)</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>In Progress</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>TBD</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>SEE BELOW</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>SEE BELOW</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>SEE BELOW</t>
         </is>
       </c>
     </row>
@@ -1141,6 +1268,11 @@
           <t>ACTIVE</t>
         </is>
       </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>52 26 21.2 N 126 21 08.8 W</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr">
         <is>
           <t>BC</t>
@@ -1161,9 +1293,24 @@
           <t>PRINCE GEORGE</t>
         </is>
       </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>BLAINE BOWE</t>
+        </is>
+      </c>
       <c r="O9" t="inlineStr">
         <is>
           <t>F-P</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>SEE BELOW</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -1199,6 +1346,11 @@
           <t>ACTIVE</t>
         </is>
       </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>51 31 25.3 N 123 06 57.2 W</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr">
         <is>
           <t>BC</t>
@@ -1219,9 +1371,37 @@
           <t>PRINCE GEORGE</t>
         </is>
       </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>BLAINE BOWE</t>
+        </is>
+      </c>
       <c r="O10" t="inlineStr">
         <is>
           <t>F-P</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>5402165</t>
+        </is>
+      </c>
+      <c r="V10" s="1" t="n">
+        <v>2958251.333333333</v>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>Squamish-Lillooet Regional District</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>Lillooet, District of</t>
         </is>
       </c>
     </row>
@@ -1257,6 +1437,11 @@
           <t>ACTIVE</t>
         </is>
       </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>51 15 14.3 N 123 06 16.2 W</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr">
         <is>
           <t>BC</t>
@@ -1277,9 +1462,35 @@
           <t>PRINCE GEORGE</t>
         </is>
       </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>BLAINE BOWE</t>
+        </is>
+      </c>
       <c r="O11" t="inlineStr">
         <is>
           <t>F-P</t>
+        </is>
+      </c>
+      <c r="U11" t="n">
+        <v>103646</v>
+      </c>
+      <c r="V11" s="1" t="n">
+        <v>50921</v>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -1315,6 +1526,11 @@
           <t>ACTIVE</t>
         </is>
       </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>51 28 57.0 N 116 58 09.6 W</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr">
         <is>
           <t>BC</t>
@@ -1335,9 +1551,37 @@
           <t>CRANBROOK</t>
         </is>
       </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>EMMA TAYLESS</t>
+        </is>
+      </c>
       <c r="O12" t="inlineStr">
         <is>
           <t>P</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>0287009</t>
+        </is>
+      </c>
+      <c r="V12" s="1" t="n">
+        <v>2958465.333333333</v>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>SEE 9778291</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>Columbia Shuswap Regional District</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>Rural</t>
         </is>
       </c>
     </row>
@@ -1373,6 +1617,11 @@
           <t>ACTIVE</t>
         </is>
       </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>56 40 39.5 N 121 13 20.4 W</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr">
         <is>
           <t>BC</t>
@@ -1393,9 +1642,33 @@
           <t>PRINCE GEORGE</t>
         </is>
       </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>ANDREW CLINE</t>
+        </is>
+      </c>
       <c r="O13" t="inlineStr">
         <is>
           <t>F</t>
+        </is>
+      </c>
+      <c r="U13" t="n">
+        <v>8000960</v>
+      </c>
+      <c r="V13" s="1" t="n">
+        <v>2958465.333333333</v>
+      </c>
+      <c r="W13" t="n">
+        <v>36909231</v>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>Peace River Regional District</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>Rural</t>
         </is>
       </c>
     </row>
@@ -1431,6 +1704,11 @@
           <t>ACTIVE</t>
         </is>
       </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>54 01 01.0 N 122 06 10.3 W</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr">
         <is>
           <t>BC</t>
@@ -1451,9 +1729,25 @@
           <t>PRINCE GEORGE</t>
         </is>
       </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>KYLE WOODS</t>
+        </is>
+      </c>
       <c r="O14" t="inlineStr">
         <is>
           <t>F</t>
+        </is>
+      </c>
+      <c r="U14" t="n">
+        <v>7410177</v>
+      </c>
+      <c r="V14" s="1" t="n">
+        <v>55287</v>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>SEE BELOW</t>
         </is>
       </c>
     </row>
@@ -1489,6 +1783,11 @@
           <t>ACTIVE</t>
         </is>
       </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>50 51 22.3 N 123 27 11.8 W</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr">
         <is>
           <t>BC</t>
@@ -1509,9 +1808,37 @@
           <t>RICHMOND</t>
         </is>
       </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>NICOLE JOHNSON</t>
+        </is>
+      </c>
       <c r="O15" t="inlineStr">
         <is>
           <t>P(BCH)</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>0354593</t>
+        </is>
+      </c>
+      <c r="V15" s="1" t="n">
+        <v>2958465.333333333</v>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -1547,6 +1874,11 @@
           <t>ACTIVE</t>
         </is>
       </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>50 49 15.3 N 123 12 12.5 W</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr">
         <is>
           <t>BC</t>
@@ -1567,9 +1899,35 @@
           <t>RICHMOND</t>
         </is>
       </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>NICOLE JOHNSON</t>
+        </is>
+      </c>
       <c r="O16" t="inlineStr">
         <is>
           <t>P(BCH)</t>
+        </is>
+      </c>
+      <c r="U16" t="n">
+        <v>103646</v>
+      </c>
+      <c r="V16" s="1" t="n">
+        <v>50921</v>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -1605,6 +1963,11 @@
           <t>ACTIVE</t>
         </is>
       </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>49 29 37.0 N 115 21 57.0 W</t>
+        </is>
+      </c>
       <c r="I17" t="inlineStr">
         <is>
           <t>BC</t>
@@ -1623,6 +1986,11 @@
       <c r="M17" t="inlineStr">
         <is>
           <t>CRANBROOK</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>NICHOLAS CROFTON</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -1866,6 +2234,11 @@
           <t>ACTIVE</t>
         </is>
       </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>49 35 20.9 N 118 18 42.3 W</t>
+        </is>
+      </c>
       <c r="I18" t="inlineStr">
         <is>
           <t>BC</t>
@@ -1884,6 +2257,11 @@
       <c r="M18" t="inlineStr">
         <is>
           <t>CRANBROOK</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>NICHOLAS CROFTON</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -2124,6 +2502,11 @@
           <t>ACTIVE</t>
         </is>
       </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>50 02 14.3 N 125 17 15.0 W</t>
+        </is>
+      </c>
       <c r="I19" t="inlineStr">
         <is>
           <t>BC</t>
@@ -2144,9 +2527,39 @@
           <t>NANAIMO</t>
         </is>
       </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>JON PRENCIPE</t>
+        </is>
+      </c>
       <c r="O19" t="inlineStr">
         <is>
           <t>P(BCH)</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>SEE BELOW</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>SEE BELOW</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>SEE BELOW</t>
+        </is>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>Strathcona Regional District</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>Campbell River, City of</t>
         </is>
       </c>
     </row>
@@ -2182,6 +2595,11 @@
           <t>ACTIVE</t>
         </is>
       </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>52 43 53.5 N 119 23 05.5 W</t>
+        </is>
+      </c>
       <c r="I20" t="inlineStr">
         <is>
           <t>BC</t>
@@ -2202,9 +2620,32 @@
           <t>PRINCE GEORGE</t>
         </is>
       </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>ROBERT VOGT</t>
+        </is>
+      </c>
       <c r="O20" t="inlineStr">
         <is>
           <t>P</t>
+        </is>
+      </c>
+      <c r="V20" s="1" t="n">
+        <v>2958465.333333333</v>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>SEE BELOW</t>
+        </is>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -2240,6 +2681,11 @@
           <t>ACTIVE</t>
         </is>
       </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>49 23 46.4 N 123 08 45.0 W</t>
+        </is>
+      </c>
       <c r="I21" t="inlineStr">
         <is>
           <t>BC</t>
@@ -2260,9 +2706,39 @@
           <t>RICHMOND</t>
         </is>
       </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>MICHAEL BARTLETT</t>
+        </is>
+      </c>
       <c r="O21" t="inlineStr">
         <is>
           <t>P(OTH)</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>No Document</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>015-974-278</t>
+        </is>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>Metro Vancouver Regional District</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>West Vancouver, The Corporation of the District of</t>
         </is>
       </c>
     </row>
@@ -2356,6 +2832,11 @@
           <t>ACTIVE</t>
         </is>
       </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>55 56 46.0 N 122 39 32.0 W</t>
+        </is>
+      </c>
       <c r="I23" t="inlineStr">
         <is>
           <t>BC</t>
@@ -2376,9 +2857,39 @@
           <t>PRINCE GEORGE</t>
         </is>
       </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>THEO MLYNOWSKI</t>
+        </is>
+      </c>
       <c r="O23" t="inlineStr">
         <is>
           <t>P(BCH)</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>No Document</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>016-909-119</t>
+        </is>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>Peace River Regional District</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>Rural</t>
         </is>
       </c>
     </row>
@@ -2414,6 +2925,11 @@
           <t>ACTIVE</t>
         </is>
       </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>48 54 56.0 N 124 59 52.0 W</t>
+        </is>
+      </c>
       <c r="I24" t="inlineStr">
         <is>
           <t>BC</t>
@@ -2434,9 +2950,39 @@
           <t>NANAIMO</t>
         </is>
       </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>MARK SCOTT</t>
+        </is>
+      </c>
       <c r="O24" t="inlineStr">
         <is>
           <t>F</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>No Document</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>008-608-393</t>
+        </is>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>Regional District of Alberni-Clayoquot</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>Rural</t>
         </is>
       </c>
     </row>
@@ -2472,6 +3018,11 @@
           <t>ACTIVE</t>
         </is>
       </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>50 40 09.5 N 121 57 55.2 W</t>
+        </is>
+      </c>
       <c r="I25" t="inlineStr">
         <is>
           <t>BC</t>
@@ -2492,9 +3043,39 @@
           <t>VERNON</t>
         </is>
       </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>NICOLE JOHNSON</t>
+        </is>
+      </c>
       <c r="O25" t="inlineStr">
         <is>
           <t>F-P(BCH)</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>No Document</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>002-629-801</t>
+        </is>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>Squamish-Lillooet Regional District</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>Lillooet, District of</t>
         </is>
       </c>
     </row>
@@ -2530,6 +3111,11 @@
           <t>ACTIVE</t>
         </is>
       </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>50 04 47.6 N 123 02 08.2 W</t>
+        </is>
+      </c>
       <c r="I26" t="inlineStr">
         <is>
           <t>BC</t>
@@ -2550,9 +3136,37 @@
           <t>RICHMOND</t>
         </is>
       </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>JOANNE LEE</t>
+        </is>
+      </c>
       <c r="O26" t="inlineStr">
         <is>
           <t>P(BCH)</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>2400832</t>
+        </is>
+      </c>
+      <c r="V26" s="1" t="n">
+        <v>52969.33333333334</v>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -2588,6 +3202,11 @@
           <t>ACTIVE</t>
         </is>
       </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>49 48 57.7 N 123 09 00.3 W</t>
+        </is>
+      </c>
       <c r="I27" t="inlineStr">
         <is>
           <t>BC</t>
@@ -2608,9 +3227,39 @@
           <t>RICHMOND</t>
         </is>
       </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>JOANNE LEE</t>
+        </is>
+      </c>
       <c r="O27" t="inlineStr">
         <is>
           <t>P(BCH)</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>No Document</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>SEE BELOW</t>
+        </is>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>Squamish-Lillooet Regional District</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>Squamish, District of</t>
         </is>
       </c>
     </row>
@@ -2646,6 +3295,11 @@
           <t>ACTIVE</t>
         </is>
       </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>49 18 00.1 N 121 56 15.9 W</t>
+        </is>
+      </c>
       <c r="I28" t="inlineStr">
         <is>
           <t>BC</t>
@@ -2666,9 +3320,39 @@
           <t>RICHMOND</t>
         </is>
       </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>SAM MACKAY</t>
+        </is>
+      </c>
       <c r="O28" t="inlineStr">
         <is>
           <t>F-P</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>No Expiry</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>7728900</t>
+        </is>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>Fraser Valley Regional District</t>
+        </is>
+      </c>
+      <c r="Y28" t="inlineStr">
+        <is>
+          <t>Rural</t>
         </is>
       </c>
     </row>
@@ -2704,6 +3388,11 @@
           <t>In Active test test test</t>
         </is>
       </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>51 37 29.5 N 124 08 36.1 W</t>
+        </is>
+      </c>
       <c r="I29" t="inlineStr">
         <is>
           <t>BC</t>
@@ -2724,9 +3413,37 @@
           <t>PRINCE GEORGE</t>
         </is>
       </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>BLAINE BOWE</t>
+        </is>
+      </c>
       <c r="O29" t="inlineStr">
         <is>
           <t>F</t>
+        </is>
+      </c>
+      <c r="U29" t="n">
+        <v>5400324</v>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>No Expiry</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>Cariboo Regional District</t>
+        </is>
+      </c>
+      <c r="Y29" t="inlineStr">
+        <is>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -2762,6 +3479,11 @@
           <t>ACTIVE</t>
         </is>
       </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>52 04 11.1 N 123 32 22.2 W</t>
+        </is>
+      </c>
       <c r="I30" t="inlineStr">
         <is>
           <t>BC</t>
@@ -2782,9 +3504,39 @@
           <t>PRINCE GEORGE</t>
         </is>
       </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>BLAINE BOWE</t>
+        </is>
+      </c>
       <c r="O30" t="inlineStr">
         <is>
           <t>F</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>No Document</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>4504051</t>
+        </is>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>Cariboo Regional District</t>
+        </is>
+      </c>
+      <c r="Y30" t="inlineStr">
+        <is>
+          <t>Rural</t>
         </is>
       </c>
     </row>
@@ -2820,6 +3572,11 @@
           <t>ACTIVE</t>
         </is>
       </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>49 06 06.1 N 121 39 46.7 W</t>
+        </is>
+      </c>
       <c r="I31" t="inlineStr">
         <is>
           <t>BC</t>
@@ -2840,9 +3597,39 @@
           <t>RICHMOND</t>
         </is>
       </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>SAM MACKAY</t>
+        </is>
+      </c>
       <c r="O31" t="inlineStr">
         <is>
           <t>F-P</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>No Document</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>SEE BELOW</t>
+        </is>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>Fraser Valley Regional District</t>
+        </is>
+      </c>
+      <c r="Y31" t="inlineStr">
+        <is>
+          <t>SEE BELOW</t>
         </is>
       </c>
     </row>
@@ -2878,6 +3665,11 @@
           <t>ACTIVE</t>
         </is>
       </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>49 05 50.5 N 121 58 02.9 W</t>
+        </is>
+      </c>
       <c r="I32" t="inlineStr">
         <is>
           <t>BC</t>
@@ -2898,9 +3690,37 @@
           <t>RICHMOND</t>
         </is>
       </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>SAM MACKAY</t>
+        </is>
+      </c>
       <c r="O32" t="inlineStr">
         <is>
           <t>F-P</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V32" s="1" t="n">
+        <v>45016.99930555555</v>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>SEE BELOW</t>
+        </is>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>Fraser Valley Regional District</t>
+        </is>
+      </c>
+      <c r="Y32" t="inlineStr">
+        <is>
+          <t>Chilliwack, City of</t>
         </is>
       </c>
     </row>
@@ -2936,6 +3756,11 @@
           <t>ACTIVE</t>
         </is>
       </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>54 31 47.0 N 122 36 44.0 W</t>
+        </is>
+      </c>
       <c r="I33" t="inlineStr">
         <is>
           <t>BC</t>
@@ -2956,9 +3781,35 @@
           <t>PRINCE GEORGE</t>
         </is>
       </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>THEO MLYNOWSKI</t>
+        </is>
+      </c>
       <c r="O33" t="inlineStr">
         <is>
           <t>F-P</t>
+        </is>
+      </c>
+      <c r="U33" t="n">
+        <v>7405135</v>
+      </c>
+      <c r="V33" s="1" t="n">
+        <v>55630</v>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>Fraser-Fort George</t>
+        </is>
+      </c>
+      <c r="Y33" t="inlineStr">
+        <is>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -2994,6 +3845,11 @@
           <t>ACTIVE</t>
         </is>
       </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>51 39 20.5 N 120 03 57.7 W</t>
+        </is>
+      </c>
       <c r="I34" t="inlineStr">
         <is>
           <t>BC</t>
@@ -3014,9 +3870,39 @@
           <t>VERNON</t>
         </is>
       </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>GREG TAYLOR</t>
+        </is>
+      </c>
       <c r="O34" t="inlineStr">
         <is>
           <t>F-P-P(OTH)</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>No Document</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>SEE BELOW</t>
+        </is>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>SEE BELOW</t>
+        </is>
+      </c>
+      <c r="Y34" t="inlineStr">
+        <is>
+          <t>SEE BELOW</t>
         </is>
       </c>
     </row>
@@ -3052,6 +3938,11 @@
           <t>INACTIVE</t>
         </is>
       </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>49 47 13.9 N 123 25 13.5 W</t>
+        </is>
+      </c>
       <c r="I35" t="inlineStr">
         <is>
           <t>BC</t>
@@ -3072,9 +3963,37 @@
           <t>NANAIMO</t>
         </is>
       </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>JASON BERGE</t>
+        </is>
+      </c>
       <c r="O35" t="inlineStr">
         <is>
           <t>P(BCH)</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>2405748</t>
+        </is>
+      </c>
+      <c r="V35" s="1" t="n">
+        <v>44944.99930555555</v>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sunshine Coast Regional District </t>
+        </is>
+      </c>
+      <c r="Y35" t="inlineStr">
+        <is>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -3110,6 +4029,11 @@
           <t>ACTIVE</t>
         </is>
       </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>51 28 59.8 N 117 10 49.4 W</t>
+        </is>
+      </c>
       <c r="I36" t="inlineStr">
         <is>
           <t>BC</t>
@@ -3130,9 +4054,39 @@
           <t>CRANBROOK</t>
         </is>
       </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>EMMA TAYLESS</t>
+        </is>
+      </c>
       <c r="O36" t="inlineStr">
         <is>
           <t>P-P(BCH)</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>SEE BELOW</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>SEE BELOW</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>SEE BELOW</t>
+        </is>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>Columbia Shuswap Regional District</t>
+        </is>
+      </c>
+      <c r="Y36" t="inlineStr">
+        <is>
+          <t>SEE BELOW</t>
         </is>
       </c>
     </row>
@@ -3168,6 +4122,11 @@
           <t>ACTIVE</t>
         </is>
       </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>49 22 06.4 N 121 23 04.1 W</t>
+        </is>
+      </c>
       <c r="I37" t="inlineStr">
         <is>
           <t>BC</t>
@@ -3188,9 +4147,37 @@
           <t>RICHMOND</t>
         </is>
       </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>SAM MACKAY</t>
+        </is>
+      </c>
       <c r="O37" t="inlineStr">
         <is>
           <t>P</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>2401664</t>
+        </is>
+      </c>
+      <c r="V37" s="1" t="n">
+        <v>56207.33333333334</v>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>4613010</t>
+        </is>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>Fraser Valley Regional District</t>
+        </is>
+      </c>
+      <c r="Y37" t="inlineStr">
+        <is>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -3226,6 +4213,11 @@
           <t>ACTIVE</t>
         </is>
       </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>49 29 16.5 N 122 47 33.0 W</t>
+        </is>
+      </c>
       <c r="I38" t="inlineStr">
         <is>
           <t>BC</t>
@@ -3246,9 +4238,39 @@
           <t>RICHMOND</t>
         </is>
       </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>MICHAEL BARTLETT</t>
+        </is>
+      </c>
       <c r="O38" t="inlineStr">
         <is>
           <t>P(BCH)</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>No Document</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>Metro Vancouver Regional District</t>
+        </is>
+      </c>
+      <c r="Y38" t="inlineStr">
+        <is>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -3284,6 +4306,11 @@
           <t>ACTIVE</t>
         </is>
       </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>59 07 03.0 N 129 49 31.9 W</t>
+        </is>
+      </c>
       <c r="I39" t="inlineStr">
         <is>
           <t>BC</t>
@@ -3304,9 +4331,37 @@
           <t>TERRACE</t>
         </is>
       </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>MIKAEL CALLAWAY</t>
+        </is>
+      </c>
       <c r="O39" t="inlineStr">
         <is>
           <t>F</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>0298912</t>
+        </is>
+      </c>
+      <c r="V39" s="1" t="n">
+        <v>48024.82222222222</v>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>Stikine Region (Unincorporated)</t>
+        </is>
+      </c>
+      <c r="Y39" t="inlineStr">
+        <is>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -3342,6 +4397,11 @@
           <t>INACTIVE</t>
         </is>
       </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>48 49 33.2 N 124 03 10.9 W</t>
+        </is>
+      </c>
       <c r="I40" t="inlineStr">
         <is>
           <t>BC</t>
@@ -3362,9 +4422,39 @@
           <t>NANAIMO</t>
         </is>
       </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>LEIGH SINCLAIR</t>
+        </is>
+      </c>
       <c r="O40" t="inlineStr">
         <is>
           <t>P(OTH)</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>No Document</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>SEE BELOW</t>
+        </is>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>Cowichan Valley Regional District</t>
+        </is>
+      </c>
+      <c r="Y40" t="inlineStr">
+        <is>
+          <t>Lake Cowichan, Town of</t>
         </is>
       </c>
     </row>
@@ -3400,6 +4490,11 @@
           <t>ACTIVE</t>
         </is>
       </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>52 53 22.1 N 125 46 16.2 W</t>
+        </is>
+      </c>
       <c r="I41" t="inlineStr">
         <is>
           <t>BC</t>
@@ -3420,9 +4515,35 @@
           <t>PRINCE GEORGE</t>
         </is>
       </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>KIRSTIN FAIRWEATHER</t>
+        </is>
+      </c>
       <c r="O41" t="inlineStr">
         <is>
           <t>P</t>
+        </is>
+      </c>
+      <c r="U41" t="n">
+        <v>5407978</v>
+      </c>
+      <c r="V41" s="1" t="n">
+        <v>47866.33333333334</v>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>Cariboo Regional District</t>
+        </is>
+      </c>
+      <c r="Y41" t="inlineStr">
+        <is>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -3458,6 +4579,11 @@
           <t>ACTIVE</t>
         </is>
       </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>55 32 16.0 N 121 35 48.5 W</t>
+        </is>
+      </c>
       <c r="I42" t="inlineStr">
         <is>
           <t>BC</t>
@@ -3478,9 +4604,39 @@
           <t>PRINCE GEORGE</t>
         </is>
       </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>KYLE WOODS</t>
+        </is>
+      </c>
       <c r="O42" t="inlineStr">
         <is>
           <t>F</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>SEE BELOW</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>SEE BELOW</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>SEE BELOW</t>
+        </is>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>Peace River Regional District</t>
+        </is>
+      </c>
+      <c r="Y42" t="inlineStr">
+        <is>
+          <t>SEE BELOW</t>
         </is>
       </c>
     </row>
@@ -3516,6 +4672,11 @@
           <t>ACTIVE</t>
         </is>
       </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>53 18 33.3 N 120 14 56.4 W</t>
+        </is>
+      </c>
       <c r="I43" t="inlineStr">
         <is>
           <t>BC</t>
@@ -3536,9 +4697,35 @@
           <t>PRINCE GEORGE</t>
         </is>
       </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>ROBERT VOGT</t>
+        </is>
+      </c>
       <c r="O43" t="inlineStr">
         <is>
           <t>F-P</t>
+        </is>
+      </c>
+      <c r="U43" t="n">
+        <v>7409896</v>
+      </c>
+      <c r="V43" s="1" t="n">
+        <v>53773.33333333334</v>
+      </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>SEE BELOW</t>
+        </is>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>Regional District of Fraser Fort George</t>
+        </is>
+      </c>
+      <c r="Y43" t="inlineStr">
+        <is>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -3574,6 +4761,11 @@
           <t>ACTIVE</t>
         </is>
       </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>55 58 34.1 N 126 40 39.6 W</t>
+        </is>
+      </c>
       <c r="I44" t="inlineStr">
         <is>
           <t>BC</t>
@@ -3594,9 +4786,37 @@
           <t>TERRACE</t>
         </is>
       </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>MIKE LEGGAT</t>
+        </is>
+      </c>
       <c r="O44" t="inlineStr">
         <is>
           <t>P</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>7410160</t>
+        </is>
+      </c>
+      <c r="V44" s="1" t="n">
+        <v>55214.95416666667</v>
+      </c>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Y44" t="inlineStr">
+        <is>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -3632,6 +4852,11 @@
           <t>ACTIVE</t>
         </is>
       </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>50 38 15.0 N 117 02 52.9 W</t>
+        </is>
+      </c>
       <c r="I45" t="inlineStr">
         <is>
           <t>BC</t>
@@ -3650,6 +4875,11 @@
       <c r="M45" t="inlineStr">
         <is>
           <t>CRANBROOK</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>RUSSELL MARYNOWSKI</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -3888,6 +5118,11 @@
           <t>ACTIVE</t>
         </is>
       </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>50 13 58.3 N 116 57 18.7 W</t>
+        </is>
+      </c>
       <c r="I46" t="inlineStr">
         <is>
           <t>BC</t>
@@ -3906,6 +5141,11 @@
       <c r="M46" t="inlineStr">
         <is>
           <t>CRANBROOK</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>RUSSELL MARYNOWSKI</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -4151,6 +5391,11 @@
           <t>ACTIVE</t>
         </is>
       </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>50 06 50.5 N 123 25 42.2 W</t>
+        </is>
+      </c>
       <c r="I47" t="inlineStr">
         <is>
           <t>BC</t>
@@ -4171,9 +5416,39 @@
           <t>RICHMOND</t>
         </is>
       </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>JOANNE LEE</t>
+        </is>
+      </c>
       <c r="O47" t="inlineStr">
         <is>
           <t>P</t>
+        </is>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>No Document</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>Squamish-Lillooet Regional District</t>
+        </is>
+      </c>
+      <c r="Y47" t="inlineStr">
+        <is>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -4209,6 +5484,11 @@
           <t>ACTIVE</t>
         </is>
       </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>49 51 26.0 N 125 48 45.6 W</t>
+        </is>
+      </c>
       <c r="I48" t="inlineStr">
         <is>
           <t>BC</t>
@@ -4229,9 +5509,35 @@
           <t>NANAIMO</t>
         </is>
       </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>JASON BERGE</t>
+        </is>
+      </c>
       <c r="O48" t="inlineStr">
         <is>
           <t>P(BCH)</t>
+        </is>
+      </c>
+      <c r="U48" t="n">
+        <v>103646</v>
+      </c>
+      <c r="V48" s="1" t="n">
+        <v>50921.99930555555</v>
+      </c>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>Strathcona Regional District</t>
+        </is>
+      </c>
+      <c r="Y48" t="inlineStr">
+        <is>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -4267,6 +5573,11 @@
           <t>ACTIVE</t>
         </is>
       </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>49 51 56.2 N 114 52 07.2 W</t>
+        </is>
+      </c>
       <c r="I49" t="inlineStr">
         <is>
           <t>BC</t>
@@ -4285,6 +5596,11 @@
       <c r="M49" t="inlineStr">
         <is>
           <t>CRANBROOK</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>EMMA TAYLESS</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -4522,6 +5838,11 @@
           <t>ACTIVE</t>
         </is>
       </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>57 07 34.4 N 125 14 59.7 W</t>
+        </is>
+      </c>
       <c r="I50" t="inlineStr">
         <is>
           <t>BC</t>
@@ -4542,9 +5863,35 @@
           <t>PRINCE GEORGE</t>
         </is>
       </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>THEO MLYNOWSKI</t>
+        </is>
+      </c>
       <c r="O50" t="inlineStr">
         <is>
           <t>P(BCH)</t>
+        </is>
+      </c>
+      <c r="U50" t="n">
+        <v>7410126</v>
+      </c>
+      <c r="V50" s="1" t="n">
+        <v>54950.33333333334</v>
+      </c>
+      <c r="W50" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Y50" t="inlineStr">
+        <is>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -4580,6 +5927,11 @@
           <t>ACTIVE</t>
         </is>
       </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>50 07 12.8 N 122 56 55.7 W</t>
+        </is>
+      </c>
       <c r="I51" t="inlineStr">
         <is>
           <t>BC</t>
@@ -4600,9 +5952,37 @@
           <t>RICHMOND</t>
         </is>
       </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>JOANNE LEE</t>
+        </is>
+      </c>
       <c r="O51" t="inlineStr">
         <is>
           <t>F-P-P(OTH)</t>
+        </is>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>2405724</t>
+        </is>
+      </c>
+      <c r="V51" s="1" t="n">
+        <v>44967.33333333334</v>
+      </c>
+      <c r="W51" t="inlineStr">
+        <is>
+          <t>025-120-093</t>
+        </is>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>Squamish-Lillooet Regional District</t>
+        </is>
+      </c>
+      <c r="Y51" t="inlineStr">
+        <is>
+          <t>Resort Municipality of Whistler</t>
         </is>
       </c>
     </row>
@@ -4663,9 +6043,37 @@
           <t>PRINCE GEORGE</t>
         </is>
       </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>ANDREW CLINE</t>
+        </is>
+      </c>
       <c r="O52" t="inlineStr">
         <is>
           <t>P</t>
+        </is>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>8004344</t>
+        </is>
+      </c>
+      <c r="V52" s="1" t="n">
+        <v>2958465.333333333</v>
+      </c>
+      <c r="W52" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Y52" t="inlineStr">
+        <is>
+          <t>Northern Rockies Regional Municipality</t>
         </is>
       </c>
     </row>
@@ -4701,6 +6109,11 @@
           <t>ACTIVE</t>
         </is>
       </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>49 53 38.2 N 114 51 59.9 W</t>
+        </is>
+      </c>
       <c r="I53" t="inlineStr">
         <is>
           <t>BC</t>
@@ -4719,6 +6132,11 @@
       <c r="M53" t="inlineStr">
         <is>
           <t>CRANBROOK</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>EMMA TAYLESS</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
@@ -4917,6 +6335,11 @@
           <t>ACTIVE</t>
         </is>
       </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>51 11 01.2 N 122 07 55.5 W</t>
+        </is>
+      </c>
       <c r="I54" t="inlineStr">
         <is>
           <t>BC</t>
@@ -4937,9 +6360,39 @@
           <t>VERNON</t>
         </is>
       </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>NICOLE JOHNSON</t>
+        </is>
+      </c>
       <c r="O54" t="inlineStr">
         <is>
           <t>MOTI</t>
+        </is>
+      </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>No Document</t>
+        </is>
+      </c>
+      <c r="W54" t="inlineStr">
+        <is>
+          <t>SEE BELOW</t>
+        </is>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>Thompson-Nicola Regional District</t>
+        </is>
+      </c>
+      <c r="Y54" t="inlineStr">
+        <is>
+          <t>Rural</t>
         </is>
       </c>
     </row>
@@ -4975,6 +6428,11 @@
           <t>ACTIVE</t>
         </is>
       </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>54 38 54.9 N 127 07 23.9 W</t>
+        </is>
+      </c>
       <c r="I55" t="inlineStr">
         <is>
           <t>BC</t>
@@ -4995,9 +6453,39 @@
           <t>TERRACE</t>
         </is>
       </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>BRIAN LAMBERT</t>
+        </is>
+      </c>
       <c r="O55" t="inlineStr">
         <is>
           <t>F-P</t>
+        </is>
+      </c>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>No Document</t>
+        </is>
+      </c>
+      <c r="W55" t="inlineStr">
+        <is>
+          <t>2394610</t>
+        </is>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Y55" t="inlineStr">
+        <is>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -5033,6 +6521,11 @@
           <t>ACTIVE</t>
         </is>
       </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>51 40 40.7 N 117 43 06.6 W</t>
+        </is>
+      </c>
       <c r="I56" t="inlineStr">
         <is>
           <t>BC</t>
@@ -5053,9 +6546,37 @@
           <t>CRANBROOK</t>
         </is>
       </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>EMMA TAYLESS</t>
+        </is>
+      </c>
       <c r="O56" t="inlineStr">
         <is>
           <t>P(BCH)</t>
+        </is>
+      </c>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>0294667</t>
+        </is>
+      </c>
+      <c r="V56" s="1" t="n">
+        <v>2958465.333333333</v>
+      </c>
+      <c r="W56" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>Columbia Shuswap Regional District</t>
+        </is>
+      </c>
+      <c r="Y56" t="inlineStr">
+        <is>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -5091,6 +6612,11 @@
           <t>ACTIVE</t>
         </is>
       </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>49 42 08.3 N 126 06 41.0 W</t>
+        </is>
+      </c>
       <c r="I57" t="inlineStr">
         <is>
           <t>BC</t>
@@ -5111,9 +6637,39 @@
           <t>NANAIMO</t>
         </is>
       </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>JASON BERGE</t>
+        </is>
+      </c>
       <c r="O57" t="inlineStr">
         <is>
           <t>P(BCH)</t>
+        </is>
+      </c>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>No Document</t>
+        </is>
+      </c>
+      <c r="W57" t="inlineStr">
+        <is>
+          <t>009-807-063</t>
+        </is>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>Strathcona Regional District</t>
+        </is>
+      </c>
+      <c r="Y57" t="inlineStr">
+        <is>
+          <t>Rural</t>
         </is>
       </c>
     </row>
@@ -5149,6 +6705,11 @@
           <t>ACTIVE</t>
         </is>
       </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>51 40 07.6 N 118 35 46.3 W</t>
+        </is>
+      </c>
       <c r="I58" t="inlineStr">
         <is>
           <t>BC</t>
@@ -5169,9 +6730,22 @@
           <t>VERNON</t>
         </is>
       </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>ODIN LEWIS</t>
+        </is>
+      </c>
       <c r="O58" t="inlineStr">
         <is>
           <t>P(BCH)</t>
+        </is>
+      </c>
+      <c r="V58" s="1" t="n">
+        <v>2958465.333333333</v>
+      </c>
+      <c r="W58" t="inlineStr">
+        <is>
+          <t>SEE BELOW</t>
         </is>
       </c>
     </row>
@@ -5207,6 +6781,11 @@
           <t>ACTIVE</t>
         </is>
       </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>56 27 35.5 N 122 21 16.3 W</t>
+        </is>
+      </c>
       <c r="I59" t="inlineStr">
         <is>
           <t>BC</t>
@@ -5227,9 +6806,35 @@
           <t>PRINCE GEORGE</t>
         </is>
       </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>ANDREW CLINE</t>
+        </is>
+      </c>
       <c r="O59" t="inlineStr">
         <is>
           <t>P-P(BCH)</t>
+        </is>
+      </c>
+      <c r="U59" t="n">
+        <v>8016108</v>
+      </c>
+      <c r="V59" s="1" t="n">
+        <v>55178.33333333334</v>
+      </c>
+      <c r="W59" t="inlineStr">
+        <is>
+          <t>7966520</t>
+        </is>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>Peace River Regional District</t>
+        </is>
+      </c>
+      <c r="Y59" t="inlineStr">
+        <is>
+          <t>Rural</t>
         </is>
       </c>
     </row>
@@ -5265,6 +6870,11 @@
           <t>ACTIVE</t>
         </is>
       </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>56 15 02.7 N 121 37 42.7 W</t>
+        </is>
+      </c>
       <c r="I60" t="inlineStr">
         <is>
           <t>BC</t>
@@ -5285,9 +6895,35 @@
           <t>PRINCE GEORGE</t>
         </is>
       </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>ANDREW CLINE</t>
+        </is>
+      </c>
       <c r="O60" t="inlineStr">
         <is>
           <t>P-P(BCH)</t>
+        </is>
+      </c>
+      <c r="U60" t="n">
+        <v>8001367</v>
+      </c>
+      <c r="V60" s="1" t="n">
+        <v>2958465.333333333</v>
+      </c>
+      <c r="W60" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Y60" t="inlineStr">
+        <is>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -5323,6 +6959,11 @@
           <t>ACTIVE</t>
         </is>
       </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>51 21 15.7 N 119 52 53.9 W</t>
+        </is>
+      </c>
       <c r="I61" t="inlineStr">
         <is>
           <t>BC</t>
@@ -5343,9 +6984,24 @@
           <t>VERNON</t>
         </is>
       </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>GREG TAYLOR</t>
+        </is>
+      </c>
       <c r="O61" t="inlineStr">
         <is>
           <t>F-P</t>
+        </is>
+      </c>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>Perpetuity</t>
+        </is>
+      </c>
+      <c r="W61" t="inlineStr">
+        <is>
+          <t>SEE BELOW</t>
         </is>
       </c>
     </row>
@@ -5381,6 +7037,11 @@
           <t>ACTIVE</t>
         </is>
       </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>52 17 29.0 N 121 04 01.0 W</t>
+        </is>
+      </c>
       <c r="I62" t="inlineStr">
         <is>
           <t>BC</t>
@@ -5401,9 +7062,24 @@
           <t>PRINCE GEORGE</t>
         </is>
       </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>KIRSTIN FAIRWEATHER</t>
+        </is>
+      </c>
       <c r="O62" t="inlineStr">
         <is>
           <t>F-P</t>
+        </is>
+      </c>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>No Document</t>
+        </is>
+      </c>
+      <c r="W62" t="inlineStr">
+        <is>
+          <t>SEE BELOW</t>
         </is>
       </c>
     </row>
@@ -5439,6 +7115,11 @@
           <t>ACTIVE</t>
         </is>
       </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>50 43 51.2 N 122 56 31.2 W</t>
+        </is>
+      </c>
       <c r="I63" t="inlineStr">
         <is>
           <t>BC</t>
@@ -5459,9 +7140,32 @@
           <t>RICHMOND</t>
         </is>
       </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>NICOLE JOHNSON</t>
+        </is>
+      </c>
       <c r="O63" t="inlineStr">
         <is>
           <t>P(BCH)</t>
+        </is>
+      </c>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>3407926</t>
+        </is>
+      </c>
+      <c r="V63" s="1" t="n">
+        <v>2958321.333333333</v>
+      </c>
+      <c r="W63" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Y63" t="inlineStr">
+        <is>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -5497,6 +7201,11 @@
           <t>ACTIVE</t>
         </is>
       </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>51 00 45.4 N 118 05 06.5 W</t>
+        </is>
+      </c>
       <c r="I64" t="inlineStr">
         <is>
           <t>BC</t>
@@ -5517,9 +7226,37 @@
           <t>VERNON</t>
         </is>
       </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>ODIN LEWIS</t>
+        </is>
+      </c>
       <c r="O64" t="inlineStr">
         <is>
           <t>P-P(BCH)</t>
+        </is>
+      </c>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V64" s="1" t="n">
+        <v>46022.99930555555</v>
+      </c>
+      <c r="W64" t="inlineStr">
+        <is>
+          <t>018-522-483</t>
+        </is>
+      </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>Columbia Shuswap Regional District</t>
+        </is>
+      </c>
+      <c r="Y64" t="inlineStr">
+        <is>
+          <t>Rural</t>
         </is>
       </c>
     </row>
@@ -5555,6 +7292,11 @@
           <t>ACTIVE</t>
         </is>
       </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>56 43 50.2 N 125 06 18.0 W</t>
+        </is>
+      </c>
       <c r="I65" t="inlineStr">
         <is>
           <t>BC</t>
@@ -5575,9 +7317,37 @@
           <t>PRINCE GEORGE</t>
         </is>
       </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>THEO MLYNOWSKI</t>
+        </is>
+      </c>
       <c r="O65" t="inlineStr">
         <is>
           <t>P(BCH)</t>
+        </is>
+      </c>
+      <c r="U65" t="inlineStr">
+        <is>
+          <t>R227038</t>
+        </is>
+      </c>
+      <c r="V65" s="1" t="n">
+        <v>55614</v>
+      </c>
+      <c r="W65" t="inlineStr">
+        <is>
+          <t>1890420</t>
+        </is>
+      </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>Peace River Regional District</t>
+        </is>
+      </c>
+      <c r="Y65" t="inlineStr">
+        <is>
+          <t>Rural</t>
         </is>
       </c>
     </row>
@@ -5613,6 +7383,11 @@
           <t>ACTIVE</t>
         </is>
       </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>49 53 49.0 N 118 11 23.4 W</t>
+        </is>
+      </c>
       <c r="I66" t="inlineStr">
         <is>
           <t>BC</t>
@@ -5631,6 +7406,11 @@
       <c r="M66" t="inlineStr">
         <is>
           <t>CRANBROOK</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>RUSSELL MARYNOWSKI</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
@@ -5841,6 +7621,11 @@
           <t>INACTIVE</t>
         </is>
       </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>56 44 03.9 N 131 40 08.3 W</t>
+        </is>
+      </c>
       <c r="I67" t="inlineStr">
         <is>
           <t>BC</t>
@@ -5861,9 +7646,35 @@
           <t>TERRACE</t>
         </is>
       </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>MIKAEL CALLAWAY</t>
+        </is>
+      </c>
       <c r="O67" t="inlineStr">
         <is>
           <t>F-P</t>
+        </is>
+      </c>
+      <c r="U67" t="n">
+        <v>306668</v>
+      </c>
+      <c r="V67" s="1" t="n">
+        <v>48024.88333333333</v>
+      </c>
+      <c r="W67" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Y67" t="inlineStr">
+        <is>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -5899,6 +7710,11 @@
           <t>ACTIVE</t>
         </is>
       </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>49 54 27.4 N 116 57 12.5 W</t>
+        </is>
+      </c>
       <c r="I68" t="inlineStr">
         <is>
           <t>BC</t>
@@ -5919,9 +7735,37 @@
           <t>CRANBROOK</t>
         </is>
       </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>RUSSELL MARYNOWSKI</t>
+        </is>
+      </c>
       <c r="O68" t="inlineStr">
         <is>
           <t>F-P</t>
+        </is>
+      </c>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>0294804</t>
+        </is>
+      </c>
+      <c r="V68" s="1" t="n">
+        <v>2958465.333333333</v>
+      </c>
+      <c r="W68" t="inlineStr">
+        <is>
+          <t>024-384-801</t>
+        </is>
+      </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>Regional District of Central Kootenay</t>
+        </is>
+      </c>
+      <c r="Y68" t="inlineStr">
+        <is>
+          <t>Rural</t>
         </is>
       </c>
     </row>
@@ -5957,6 +7801,11 @@
           <t>ACTIVE</t>
         </is>
       </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>49 52 21.1 N 117 07 19.1 W</t>
+        </is>
+      </c>
       <c r="I69" t="inlineStr">
         <is>
           <t>BC</t>
@@ -5975,6 +7824,11 @@
       <c r="M69" t="inlineStr">
         <is>
           <t>CRANBROOK</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>STEVEN DREGER</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
@@ -6182,6 +8036,11 @@
           <t>ACTIVE</t>
         </is>
       </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>53 33 48.7 N 127 57 08.4 W</t>
+        </is>
+      </c>
       <c r="I70" t="inlineStr">
         <is>
           <t>BC</t>
@@ -6202,9 +8061,39 @@
           <t>TERRACE</t>
         </is>
       </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>MIKAEL CALLAWAY</t>
+        </is>
+      </c>
       <c r="O70" t="inlineStr">
         <is>
           <t>F-P(OTH)</t>
+        </is>
+      </c>
+      <c r="U70" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V70" t="inlineStr">
+        <is>
+          <t>No Document</t>
+        </is>
+      </c>
+      <c r="W70" t="inlineStr">
+        <is>
+          <t>2059630</t>
+        </is>
+      </c>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>Regional District of Kitimat-Stikine</t>
+        </is>
+      </c>
+      <c r="Y70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rural </t>
         </is>
       </c>
     </row>
@@ -6240,6 +8129,11 @@
           <t>ACTIVE</t>
         </is>
       </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>50 40 19.1 N 127 20 55.2 W</t>
+        </is>
+      </c>
       <c r="I71" t="inlineStr">
         <is>
           <t>BC</t>
@@ -6260,9 +8154,39 @@
           <t>NANAIMO</t>
         </is>
       </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>TAYLOR KRUPA</t>
+        </is>
+      </c>
       <c r="O71" t="inlineStr">
         <is>
           <t>F-P</t>
+        </is>
+      </c>
+      <c r="U71" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V71" t="inlineStr">
+        <is>
+          <t>No Document</t>
+        </is>
+      </c>
+      <c r="W71" t="inlineStr">
+        <is>
+          <t>003-648-753</t>
+        </is>
+      </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>Regional District of Mount Waddington</t>
+        </is>
+      </c>
+      <c r="Y71" t="inlineStr">
+        <is>
+          <t>Port Hardy, District of</t>
         </is>
       </c>
     </row>
@@ -6298,6 +8222,11 @@
           <t>INACTIVE</t>
         </is>
       </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>55 57 26.5 N 120 33 51.7 W</t>
+        </is>
+      </c>
       <c r="I72" t="inlineStr">
         <is>
           <t>BC</t>
@@ -6318,9 +8247,34 @@
           <t>PRINCE GEORGE</t>
         </is>
       </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>AARON KERYLUKE</t>
+        </is>
+      </c>
       <c r="O72" t="inlineStr">
         <is>
           <t>P</t>
+        </is>
+      </c>
+      <c r="V72" t="inlineStr">
+        <is>
+          <t>SEE BELOW</t>
+        </is>
+      </c>
+      <c r="W72" t="inlineStr">
+        <is>
+          <t>SEE BELOW</t>
+        </is>
+      </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>Peace River Regional District</t>
+        </is>
+      </c>
+      <c r="Y72" t="inlineStr">
+        <is>
+          <t>Rural</t>
         </is>
       </c>
     </row>
@@ -6356,6 +8310,11 @@
           <t>ACTIVE</t>
         </is>
       </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>51 08 41.2 N 125 35 39.7 W</t>
+        </is>
+      </c>
       <c r="I73" t="inlineStr">
         <is>
           <t>BC</t>
@@ -6376,9 +8335,37 @@
           <t>NANAIMO</t>
         </is>
       </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>JASON BERGE</t>
+        </is>
+      </c>
       <c r="O73" t="inlineStr">
         <is>
           <t>F-P</t>
+        </is>
+      </c>
+      <c r="U73" t="inlineStr">
+        <is>
+          <t>1403362</t>
+        </is>
+      </c>
+      <c r="V73" s="1" t="n">
+        <v>2958465.333333333</v>
+      </c>
+      <c r="W73" t="inlineStr">
+        <is>
+          <t>6184501</t>
+        </is>
+      </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>Regional District of Mount Waddington</t>
+        </is>
+      </c>
+      <c r="Y73" t="inlineStr">
+        <is>
+          <t>Rural</t>
         </is>
       </c>
     </row>
@@ -6414,6 +8401,11 @@
           <t>ACTIVE</t>
         </is>
       </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>49 36 43.3 N 115 38 07.2 W</t>
+        </is>
+      </c>
       <c r="I74" t="inlineStr">
         <is>
           <t>BC</t>
@@ -6432,6 +8424,11 @@
       <c r="M74" t="inlineStr">
         <is>
           <t>CRANBROOK</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>NICHOLAS CROFTON</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
@@ -6682,6 +8679,11 @@
           <t>CRANBROOK</t>
         </is>
       </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>RUSSELL MARYNOWSKI</t>
+        </is>
+      </c>
       <c r="O75" t="inlineStr">
         <is>
           <t>F-P</t>
@@ -6843,6 +8845,11 @@
           <t>ACTIVE</t>
         </is>
       </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>50 15 46.3 N 116 58 05.8 W</t>
+        </is>
+      </c>
       <c r="I76" t="inlineStr">
         <is>
           <t>BC</t>
@@ -6863,9 +8870,39 @@
           <t>CRANBROOK</t>
         </is>
       </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>RUSSELL MARYNOWSKI</t>
+        </is>
+      </c>
       <c r="O76" t="inlineStr">
         <is>
           <t>P(BCH)</t>
+        </is>
+      </c>
+      <c r="U76" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V76" t="inlineStr">
+        <is>
+          <t>No Document</t>
+        </is>
+      </c>
+      <c r="W76" t="inlineStr">
+        <is>
+          <t>016-374-771</t>
+        </is>
+      </c>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>Regional District of Central Kootenay</t>
+        </is>
+      </c>
+      <c r="Y76" t="inlineStr">
+        <is>
+          <t>Rural</t>
         </is>
       </c>
     </row>
@@ -6901,6 +8938,11 @@
           <t>INACTIVE</t>
         </is>
       </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>49 41 49.6 N 117 26 45.4 W</t>
+        </is>
+      </c>
       <c r="I77" t="inlineStr">
         <is>
           <t>BC</t>
@@ -6921,9 +8963,37 @@
           <t>CRANBROOK</t>
         </is>
       </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>STEVEN DREGER</t>
+        </is>
+      </c>
       <c r="O77" t="inlineStr">
         <is>
           <t>F-P</t>
+        </is>
+      </c>
+      <c r="U77" t="inlineStr">
+        <is>
+          <t>4406155</t>
+        </is>
+      </c>
+      <c r="V77" s="1" t="n">
+        <v>55138.33333333334</v>
+      </c>
+      <c r="W77" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Y77" t="inlineStr">
+        <is>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -6959,6 +9029,11 @@
           <t>ACTIVE</t>
         </is>
       </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>49 43 33.4 N 123 06 07.5 W</t>
+        </is>
+      </c>
       <c r="I78" t="inlineStr">
         <is>
           <t>BC</t>
@@ -6979,9 +9054,39 @@
           <t>RICHMOND</t>
         </is>
       </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>JOANNE LEE</t>
+        </is>
+      </c>
       <c r="O78" t="inlineStr">
         <is>
           <t>F-P</t>
+        </is>
+      </c>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V78" t="inlineStr">
+        <is>
+          <t>04/31/2031</t>
+        </is>
+      </c>
+      <c r="W78" t="inlineStr">
+        <is>
+          <t>015-974-804</t>
+        </is>
+      </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>Squamish-Lillooet Regional District</t>
+        </is>
+      </c>
+      <c r="Y78" t="inlineStr">
+        <is>
+          <t>Squamish, District of</t>
         </is>
       </c>
     </row>
@@ -7017,6 +9122,11 @@
           <t>ACTIVE</t>
         </is>
       </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>54 13 52.2 N 121 40 07.5 W</t>
+        </is>
+      </c>
       <c r="I79" t="inlineStr">
         <is>
           <t>BC</t>
@@ -7037,9 +9147,37 @@
           <t>PRINCE GEORGE</t>
         </is>
       </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>KYLE WOODS</t>
+        </is>
+      </c>
       <c r="O79" t="inlineStr">
         <is>
           <t>F-P</t>
+        </is>
+      </c>
+      <c r="U79" t="inlineStr">
+        <is>
+          <t>7404004</t>
+        </is>
+      </c>
+      <c r="V79" s="1" t="n">
+        <v>2958465.333333333</v>
+      </c>
+      <c r="W79" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>Regional District of Fraser-Fort George</t>
+        </is>
+      </c>
+      <c r="Y79" t="inlineStr">
+        <is>
+          <t>Rural</t>
         </is>
       </c>
     </row>
@@ -7075,6 +9213,11 @@
           <t>ACTIVE</t>
         </is>
       </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>53 26 38.6 N 120 13 12.5 W</t>
+        </is>
+      </c>
       <c r="I80" t="inlineStr">
         <is>
           <t>BC</t>
@@ -7095,9 +9238,27 @@
           <t>PRINCE GEORGE</t>
         </is>
       </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>ROBERT VOGT</t>
+        </is>
+      </c>
       <c r="O80" t="inlineStr">
         <is>
           <t>F-P</t>
+        </is>
+      </c>
+      <c r="V80" s="1" t="n">
+        <v>2958465.333333333</v>
+      </c>
+      <c r="W80" t="inlineStr">
+        <is>
+          <t>SEE BELOW</t>
+        </is>
+      </c>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>Regional District of Fraser-Fort George</t>
         </is>
       </c>
     </row>
@@ -7133,6 +9294,11 @@
           <t>ACTIVE</t>
         </is>
       </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>56 14 42.0 N 124 38 40.8 W</t>
+        </is>
+      </c>
       <c r="I81" t="inlineStr">
         <is>
           <t>BC</t>
@@ -7153,9 +9319,39 @@
           <t>PRINCE GEORGE</t>
         </is>
       </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>THEO MLYNOWSKI</t>
+        </is>
+      </c>
       <c r="O81" t="inlineStr">
         <is>
           <t>P(BCH)</t>
+        </is>
+      </c>
+      <c r="U81" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V81" t="inlineStr">
+        <is>
+          <t>No Document</t>
+        </is>
+      </c>
+      <c r="W81" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>Regional District of Fraser-Fort George</t>
+        </is>
+      </c>
+      <c r="Y81" t="inlineStr">
+        <is>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -7191,6 +9387,11 @@
           <t>ACTIVE</t>
         </is>
       </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>56 05 33.0 N 121 22 00.4 W</t>
+        </is>
+      </c>
       <c r="I82" t="inlineStr">
         <is>
           <t>BC</t>
@@ -7211,9 +9412,37 @@
           <t>PRINCE GEORGE</t>
         </is>
       </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>KYLE WOODS</t>
+        </is>
+      </c>
       <c r="O82" t="inlineStr">
         <is>
           <t>P-P(BCH)</t>
+        </is>
+      </c>
+      <c r="U82" t="inlineStr">
+        <is>
+          <t>0354594</t>
+        </is>
+      </c>
+      <c r="V82" s="1" t="n">
+        <v>2958465.333333333</v>
+      </c>
+      <c r="W82" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>Peace River Regional District</t>
+        </is>
+      </c>
+      <c r="Y82" t="inlineStr">
+        <is>
+          <t>Rural</t>
         </is>
       </c>
     </row>
@@ -7249,6 +9478,11 @@
           <t>ACTIVE</t>
         </is>
       </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>54 07 00.5 N 127 25 35.6 W</t>
+        </is>
+      </c>
       <c r="I83" t="inlineStr">
         <is>
           <t>BC</t>
@@ -7269,9 +9503,37 @@
           <t>TERRACE</t>
         </is>
       </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>MIKAEL CALLAWAY</t>
+        </is>
+      </c>
       <c r="O83" t="inlineStr">
         <is>
           <t>F-P</t>
+        </is>
+      </c>
+      <c r="U83" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V83" s="1" t="n">
+        <v>50919.99930555555</v>
+      </c>
+      <c r="W83" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>Bulkley-Nechako</t>
+        </is>
+      </c>
+      <c r="Y83" t="inlineStr">
+        <is>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -7307,6 +9569,11 @@
           <t>ACTIVE</t>
         </is>
       </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>53 40 54.0 N 120 35 29.0 W</t>
+        </is>
+      </c>
       <c r="I84" t="inlineStr">
         <is>
           <t>BC</t>
@@ -7327,9 +9594,22 @@
           <t>PRINCE GEORGE</t>
         </is>
       </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>ROBERT VOGT</t>
+        </is>
+      </c>
       <c r="O84" t="inlineStr">
         <is>
           <t>P</t>
+        </is>
+      </c>
+      <c r="V84" s="1" t="n">
+        <v>55868</v>
+      </c>
+      <c r="W84" t="inlineStr">
+        <is>
+          <t>SEE BELOW</t>
         </is>
       </c>
     </row>
@@ -7365,6 +9645,11 @@
           <t>ACTIVE</t>
         </is>
       </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>54 17 48.4 N 120 58 38.7 W</t>
+        </is>
+      </c>
       <c r="I85" t="inlineStr">
         <is>
           <t>BC</t>
@@ -7385,9 +9670,35 @@
           <t>PRINCE GEORGE</t>
         </is>
       </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>KYLE WOODS</t>
+        </is>
+      </c>
       <c r="O85" t="inlineStr">
         <is>
           <t>F-P</t>
+        </is>
+      </c>
+      <c r="U85" t="n">
+        <v>7410171</v>
+      </c>
+      <c r="V85" s="1" t="n">
+        <v>55256.33333333334</v>
+      </c>
+      <c r="W85" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Y85" t="inlineStr">
+        <is>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -7423,6 +9734,11 @@
           <t>ACTIVE</t>
         </is>
       </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>55 03 40.9 N 121 00 49.6 W</t>
+        </is>
+      </c>
       <c r="I86" t="inlineStr">
         <is>
           <t>BC</t>
@@ -7443,9 +9759,37 @@
           <t>PRINCE GEORGE</t>
         </is>
       </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>KYLE WOODS</t>
+        </is>
+      </c>
       <c r="O86" t="inlineStr">
         <is>
           <t>F-P</t>
+        </is>
+      </c>
+      <c r="U86" t="inlineStr">
+        <is>
+          <t>0344883</t>
+        </is>
+      </c>
+      <c r="V86" s="1" t="n">
+        <v>2958465.333333333</v>
+      </c>
+      <c r="W86" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="X86" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Y86" t="inlineStr">
+        <is>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -7481,6 +9825,11 @@
           <t>ACTIVE</t>
         </is>
       </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>55 33 08.9 N 121 12 12.6 W</t>
+        </is>
+      </c>
       <c r="I87" t="inlineStr">
         <is>
           <t>BC</t>
@@ -7501,9 +9850,35 @@
           <t>PRINCE GEORGE</t>
         </is>
       </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>KYLE WOODS</t>
+        </is>
+      </c>
       <c r="O87" t="inlineStr">
         <is>
           <t>F</t>
+        </is>
+      </c>
+      <c r="U87" t="n">
+        <v>344442</v>
+      </c>
+      <c r="V87" s="1" t="n">
+        <v>2958221.333333333</v>
+      </c>
+      <c r="W87" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="X87" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Y87" t="inlineStr">
+        <is>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -7539,6 +9914,11 @@
           <t>ACTIVE</t>
         </is>
       </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>49 57 13.8 N 121 51 46.3 W</t>
+        </is>
+      </c>
       <c r="I88" t="inlineStr">
         <is>
           <t>BC</t>
@@ -7559,9 +9939,37 @@
           <t>RICHMOND</t>
         </is>
       </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>SAM MACKAY</t>
+        </is>
+      </c>
       <c r="O88" t="inlineStr">
         <is>
           <t>F-P</t>
+        </is>
+      </c>
+      <c r="U88" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V88" s="1" t="n">
+        <v>50919.99930555555</v>
+      </c>
+      <c r="W88" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="X88" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Y88" t="inlineStr">
+        <is>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -7597,6 +10005,11 @@
           <t>ACTIVE</t>
         </is>
       </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>49 04 07.0 N 123 53 13.0 W</t>
+        </is>
+      </c>
       <c r="I89" t="inlineStr">
         <is>
           <t>BC</t>
@@ -7617,9 +10030,39 @@
           <t>NANAIMO</t>
         </is>
       </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>LEIGH SINCLAIR</t>
+        </is>
+      </c>
       <c r="O89" t="inlineStr">
         <is>
           <t>P(OTH)</t>
+        </is>
+      </c>
+      <c r="U89" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V89" t="inlineStr">
+        <is>
+          <t>Not Specified</t>
+        </is>
+      </c>
+      <c r="W89" t="inlineStr">
+        <is>
+          <t>003-166-597</t>
+        </is>
+      </c>
+      <c r="X89" t="inlineStr">
+        <is>
+          <t>Regional District of Nanaimo</t>
+        </is>
+      </c>
+      <c r="Y89" t="inlineStr">
+        <is>
+          <t>Rural</t>
         </is>
       </c>
     </row>
@@ -7655,6 +10098,11 @@
           <t>ACTIVE</t>
         </is>
       </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>53 55 49.1 N 127 27 06.0 W</t>
+        </is>
+      </c>
       <c r="I90" t="inlineStr">
         <is>
           <t>BC</t>
@@ -7675,9 +10123,37 @@
           <t>TERRACE</t>
         </is>
       </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>MIKAEL CALLAWAY</t>
+        </is>
+      </c>
       <c r="O90" t="inlineStr">
         <is>
           <t>F-P</t>
+        </is>
+      </c>
+      <c r="U90" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V90" s="1" t="n">
+        <v>50919.99930555555</v>
+      </c>
+      <c r="W90" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="X90" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Y90" t="inlineStr">
+        <is>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -7713,6 +10189,11 @@
           <t>ACTIVE</t>
         </is>
       </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>55 25 38.0 N 123 38 00.1 W</t>
+        </is>
+      </c>
       <c r="I91" t="inlineStr">
         <is>
           <t>BC</t>
@@ -7733,9 +10214,37 @@
           <t>PRINCE GEORGE</t>
         </is>
       </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>THEO MLYNOWSKI</t>
+        </is>
+      </c>
       <c r="O91" t="inlineStr">
         <is>
           <t>P(BCH)</t>
+        </is>
+      </c>
+      <c r="U91" t="inlineStr">
+        <is>
+          <t>920-5-0917</t>
+        </is>
+      </c>
+      <c r="V91" s="1" t="n">
+        <v>2958465.333333333</v>
+      </c>
+      <c r="W91" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="X91" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Y91" t="inlineStr">
+        <is>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -7771,6 +10280,11 @@
           <t>ACTIVE</t>
         </is>
       </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>53 41 07.7 N 124 50 21.4 W</t>
+        </is>
+      </c>
       <c r="I92" t="inlineStr">
         <is>
           <t>BC</t>
@@ -7791,9 +10305,37 @@
           <t>PRINCE GEORGE</t>
         </is>
       </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>ROBERT VOGT</t>
+        </is>
+      </c>
       <c r="O92" t="inlineStr">
         <is>
           <t>P-P(OTH)</t>
+        </is>
+      </c>
+      <c r="U92" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V92" s="1" t="n">
+        <v>46232.99930555555</v>
+      </c>
+      <c r="W92" t="inlineStr">
+        <is>
+          <t>015-492-729</t>
+        </is>
+      </c>
+      <c r="X92" t="inlineStr">
+        <is>
+          <t>Regional District of Bulkley-Nechako</t>
+        </is>
+      </c>
+      <c r="Y92" t="inlineStr">
+        <is>
+          <t>Rural</t>
         </is>
       </c>
     </row>
@@ -7829,6 +10371,11 @@
           <t>ACTIVE</t>
         </is>
       </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>50 09 43.7 N 120 40 07.5 W</t>
+        </is>
+      </c>
       <c r="I93" t="inlineStr">
         <is>
           <t>BC</t>
@@ -7849,9 +10396,39 @@
           <t>VERNON</t>
         </is>
       </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>TOBIN ROBERTS</t>
+        </is>
+      </c>
       <c r="O93" t="inlineStr">
         <is>
           <t>F-P</t>
+        </is>
+      </c>
+      <c r="U93" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V93" t="inlineStr">
+        <is>
+          <t>No Document</t>
+        </is>
+      </c>
+      <c r="W93" t="inlineStr">
+        <is>
+          <t>001-506-463</t>
+        </is>
+      </c>
+      <c r="X93" t="inlineStr">
+        <is>
+          <t>Thompson-Nicola Regional District</t>
+        </is>
+      </c>
+      <c r="Y93" t="inlineStr">
+        <is>
+          <t>Rural</t>
         </is>
       </c>
     </row>
@@ -7887,6 +10464,11 @@
           <t>ACTIVE</t>
         </is>
       </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>50 12 53.4 N 126 36 38.9 W</t>
+        </is>
+      </c>
       <c r="I94" t="inlineStr">
         <is>
           <t>BC</t>
@@ -7907,9 +10489,39 @@
           <t>NANAIMO</t>
         </is>
       </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>TAYLOR KRUPA</t>
+        </is>
+      </c>
       <c r="O94" t="inlineStr">
         <is>
           <t>F-P</t>
+        </is>
+      </c>
+      <c r="U94" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V94" t="inlineStr">
+        <is>
+          <t>No Document</t>
+        </is>
+      </c>
+      <c r="W94" t="inlineStr">
+        <is>
+          <t>1076800</t>
+        </is>
+      </c>
+      <c r="X94" t="inlineStr">
+        <is>
+          <t>Regional District of Mount Waddington</t>
+        </is>
+      </c>
+      <c r="Y94" t="inlineStr">
+        <is>
+          <t>Rural</t>
         </is>
       </c>
     </row>
@@ -7945,6 +10557,11 @@
           <t>ACTIVE</t>
         </is>
       </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>51 02 27.3 N 120 14 25.6 W</t>
+        </is>
+      </c>
       <c r="I95" t="inlineStr">
         <is>
           <t>BC</t>
@@ -7965,9 +10582,24 @@
           <t>VERNON</t>
         </is>
       </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>GREG TAYLOR</t>
+        </is>
+      </c>
       <c r="O95" t="inlineStr">
         <is>
           <t>MOTI</t>
+        </is>
+      </c>
+      <c r="V95" t="inlineStr">
+        <is>
+          <t>No Document</t>
+        </is>
+      </c>
+      <c r="W95" t="inlineStr">
+        <is>
+          <t>SEE BELOW</t>
         </is>
       </c>
     </row>
@@ -8003,6 +10635,11 @@
           <t>ACTIVE</t>
         </is>
       </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>49 20 31.3 N 119 34 49.4 W</t>
+        </is>
+      </c>
       <c r="I96" t="inlineStr">
         <is>
           <t>BC</t>
@@ -8023,9 +10660,39 @@
           <t>VERNON</t>
         </is>
       </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>EMILY HUXTER</t>
+        </is>
+      </c>
       <c r="O96" t="inlineStr">
         <is>
           <t>P</t>
+        </is>
+      </c>
+      <c r="U96" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V96" t="inlineStr">
+        <is>
+          <t>No Document</t>
+        </is>
+      </c>
+      <c r="W96" t="inlineStr">
+        <is>
+          <t>010-703-578</t>
+        </is>
+      </c>
+      <c r="X96" t="inlineStr">
+        <is>
+          <t>Regional District of Okanagan-Similkameen</t>
+        </is>
+      </c>
+      <c r="Y96" t="inlineStr">
+        <is>
+          <t>Rural</t>
         </is>
       </c>
     </row>
@@ -8061,6 +10728,11 @@
           <t>ACTIVE</t>
         </is>
       </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>49 29 54.6 N 119 36 55.2 W</t>
+        </is>
+      </c>
       <c r="I97" t="inlineStr">
         <is>
           <t>BC</t>
@@ -8081,9 +10753,39 @@
           <t>VERNON</t>
         </is>
       </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>EMILY HUXTER</t>
+        </is>
+      </c>
       <c r="O97" t="inlineStr">
         <is>
           <t>P-P(BCH)</t>
+        </is>
+      </c>
+      <c r="U97" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V97" t="inlineStr">
+        <is>
+          <t>No Document</t>
+        </is>
+      </c>
+      <c r="W97" t="inlineStr">
+        <is>
+          <t>002-014-394</t>
+        </is>
+      </c>
+      <c r="X97" t="inlineStr">
+        <is>
+          <t>Regional District of Okanagan-Similkameen</t>
+        </is>
+      </c>
+      <c r="Y97" t="inlineStr">
+        <is>
+          <t>Rural</t>
         </is>
       </c>
     </row>
@@ -8119,6 +10821,11 @@
           <t>ACTIVE</t>
         </is>
       </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>49 06 52.6 N 119 33 59.9 W</t>
+        </is>
+      </c>
       <c r="I98" t="inlineStr">
         <is>
           <t>BC</t>
@@ -8139,9 +10846,39 @@
           <t>VERNON</t>
         </is>
       </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>EMILY HUXTER</t>
+        </is>
+      </c>
       <c r="O98" t="inlineStr">
         <is>
           <t>F-P</t>
+        </is>
+      </c>
+      <c r="U98" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V98" t="inlineStr">
+        <is>
+          <t>No Document</t>
+        </is>
+      </c>
+      <c r="W98" t="inlineStr">
+        <is>
+          <t>010-928-871</t>
+        </is>
+      </c>
+      <c r="X98" t="inlineStr">
+        <is>
+          <t>Regional District of Okanagan-Similkameen</t>
+        </is>
+      </c>
+      <c r="Y98" t="inlineStr">
+        <is>
+          <t>Rural</t>
         </is>
       </c>
     </row>
@@ -8202,9 +10939,37 @@
           <t>PRINCE GEORGE</t>
         </is>
       </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>THEO MLYNOWSKI</t>
+        </is>
+      </c>
       <c r="O99" t="inlineStr">
         <is>
           <t>P(BCH)</t>
+        </is>
+      </c>
+      <c r="U99" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V99" s="1" t="n">
+        <v>50919.99930555555</v>
+      </c>
+      <c r="W99" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="X99" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Y99" t="inlineStr">
+        <is>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -8240,6 +11005,11 @@
           <t>INACTIVE</t>
         </is>
       </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>56 07 37.0 N 124 48 06.9 W</t>
+        </is>
+      </c>
       <c r="I100" t="inlineStr">
         <is>
           <t>BC</t>
@@ -8260,9 +11030,37 @@
           <t>PRINCE GEORGE</t>
         </is>
       </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>THEO MLYNOWSKI</t>
+        </is>
+      </c>
       <c r="O100" t="inlineStr">
         <is>
           <t>F-P-P(BCH)</t>
+        </is>
+      </c>
+      <c r="U100" t="n">
+        <v>7410178</v>
+      </c>
+      <c r="V100" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W100" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="X100" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Y100" t="inlineStr">
+        <is>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -8298,6 +11096,11 @@
           <t>ACTIVE</t>
         </is>
       </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>56 31 26.8 N 123 56 09.7 W</t>
+        </is>
+      </c>
       <c r="I101" t="inlineStr">
         <is>
           <t>BC</t>
@@ -8318,9 +11121,37 @@
           <t>PRINCE GEORGE</t>
         </is>
       </c>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>THEO MLYNOWSKI</t>
+        </is>
+      </c>
       <c r="O101" t="inlineStr">
         <is>
           <t>F</t>
+        </is>
+      </c>
+      <c r="U101" t="n">
+        <v>7410179</v>
+      </c>
+      <c r="V101" t="inlineStr">
+        <is>
+          <t>Application under review</t>
+        </is>
+      </c>
+      <c r="W101" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="X101" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Y101" t="inlineStr">
+        <is>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -8356,6 +11187,11 @@
           <t>ACTIVE</t>
         </is>
       </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>49 53 40.5 N 125 14 30.3 W</t>
+        </is>
+      </c>
       <c r="I102" t="inlineStr">
         <is>
           <t>BC</t>
@@ -8376,9 +11212,37 @@
           <t>NANAIMO</t>
         </is>
       </c>
+      <c r="N102" t="inlineStr">
+        <is>
+          <t>TAYLOR KRUPA</t>
+        </is>
+      </c>
       <c r="O102" t="inlineStr">
         <is>
           <t>P</t>
+        </is>
+      </c>
+      <c r="U102" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V102" s="1" t="n">
+        <v>47787.99930555555</v>
+      </c>
+      <c r="W102" t="inlineStr">
+        <is>
+          <t>000-207-616</t>
+        </is>
+      </c>
+      <c r="X102" t="inlineStr">
+        <is>
+          <t>Strathcona Regional District</t>
+        </is>
+      </c>
+      <c r="Y102" t="inlineStr">
+        <is>
+          <t>Rural</t>
         </is>
       </c>
     </row>
@@ -8414,6 +11278,11 @@
           <t>ACTIVE</t>
         </is>
       </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>54 59 54.6 N 123 02 11.6 W</t>
+        </is>
+      </c>
       <c r="I103" t="inlineStr">
         <is>
           <t>BC</t>
@@ -8434,9 +11303,39 @@
           <t>PRINCE GEORGE</t>
         </is>
       </c>
+      <c r="N103" t="inlineStr">
+        <is>
+          <t>THEO MLYNOWSKI</t>
+        </is>
+      </c>
       <c r="O103" t="inlineStr">
         <is>
           <t>P(BCH)</t>
+        </is>
+      </c>
+      <c r="U103" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V103" t="inlineStr">
+        <is>
+          <t>No Document</t>
+        </is>
+      </c>
+      <c r="W103" t="inlineStr">
+        <is>
+          <t>007-809-808</t>
+        </is>
+      </c>
+      <c r="X103" t="inlineStr">
+        <is>
+          <t>Regional District of Fraser-Fort George</t>
+        </is>
+      </c>
+      <c r="Y103" t="inlineStr">
+        <is>
+          <t>Rural</t>
         </is>
       </c>
     </row>
@@ -8472,6 +11371,11 @@
           <t>INACTIVE</t>
         </is>
       </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>53 03 26.2 N 132 03 04.8 W</t>
+        </is>
+      </c>
       <c r="I104" t="inlineStr">
         <is>
           <t>BC</t>
@@ -8492,9 +11396,37 @@
           <t>RICHMOND</t>
         </is>
       </c>
+      <c r="N104" t="inlineStr">
+        <is>
+          <t>JOANNE LEE</t>
+        </is>
+      </c>
       <c r="O104" t="inlineStr">
         <is>
           <t>F-P</t>
+        </is>
+      </c>
+      <c r="U104" t="inlineStr">
+        <is>
+          <t>1414553</t>
+        </is>
+      </c>
+      <c r="V104" s="1" t="n">
+        <v>54103.33333333334</v>
+      </c>
+      <c r="W104" t="inlineStr">
+        <is>
+          <t>2838830</t>
+        </is>
+      </c>
+      <c r="X104" t="inlineStr">
+        <is>
+          <t>North Coast Regional District</t>
+        </is>
+      </c>
+      <c r="Y104" t="inlineStr">
+        <is>
+          <t>Rural</t>
         </is>
       </c>
     </row>
@@ -8530,6 +11462,11 @@
           <t>ACTIVE</t>
         </is>
       </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>55 04 55.0 N 122 54 47.0 W</t>
+        </is>
+      </c>
       <c r="I105" t="inlineStr">
         <is>
           <t>BC</t>
@@ -8550,9 +11487,35 @@
           <t>PRINCE GEORGE</t>
         </is>
       </c>
+      <c r="N105" t="inlineStr">
+        <is>
+          <t>THEO MLYNOWSKI</t>
+        </is>
+      </c>
       <c r="O105" t="inlineStr">
         <is>
           <t>F-P-P(BCH)</t>
+        </is>
+      </c>
+      <c r="U105" t="n">
+        <v>278181</v>
+      </c>
+      <c r="V105" s="1" t="n">
+        <v>2958362.333333333</v>
+      </c>
+      <c r="W105" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="X105" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Y105" t="inlineStr">
+        <is>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -8588,6 +11551,11 @@
           <t>INACTIVE</t>
         </is>
       </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>49 05 56.1 N 120 34 45.7 W</t>
+        </is>
+      </c>
       <c r="I106" t="inlineStr">
         <is>
           <t>BC</t>
@@ -8608,9 +11576,37 @@
           <t>VERNON</t>
         </is>
       </c>
+      <c r="N106" t="inlineStr">
+        <is>
+          <t>SHAYNE DOERKSEN</t>
+        </is>
+      </c>
       <c r="O106" t="inlineStr">
         <is>
           <t>F-P</t>
+        </is>
+      </c>
+      <c r="U106" t="n">
+        <v>3413697</v>
+      </c>
+      <c r="V106" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="W106" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="X106" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Y106" t="inlineStr">
+        <is>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -8646,6 +11642,11 @@
           <t>INACTIVE</t>
         </is>
       </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>54 24 19.5 N 125 25 47.3 W</t>
+        </is>
+      </c>
       <c r="I107" t="inlineStr">
         <is>
           <t>BC</t>
@@ -8666,9 +11667,37 @@
           <t>TERRACE</t>
         </is>
       </c>
+      <c r="N107" t="inlineStr">
+        <is>
+          <t>MIKE LEGGAT</t>
+        </is>
+      </c>
       <c r="O107" t="inlineStr">
         <is>
           <t>F</t>
+        </is>
+      </c>
+      <c r="U107" t="n">
+        <v>248360</v>
+      </c>
+      <c r="V107" t="inlineStr">
+        <is>
+          <t>Retired</t>
+        </is>
+      </c>
+      <c r="W107" t="inlineStr">
+        <is>
+          <t>017-062-250</t>
+        </is>
+      </c>
+      <c r="X107" t="inlineStr">
+        <is>
+          <t>Regional District of Bulkley-Nechako</t>
+        </is>
+      </c>
+      <c r="Y107" t="inlineStr">
+        <is>
+          <t>Rural</t>
         </is>
       </c>
     </row>
@@ -8704,6 +11733,11 @@
           <t>ACTIVE</t>
         </is>
       </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>49 41 16.9 N 125 02 03.1 W</t>
+        </is>
+      </c>
       <c r="I108" t="inlineStr">
         <is>
           <t>BC</t>
@@ -8724,9 +11758,39 @@
           <t>NANAIMO</t>
         </is>
       </c>
+      <c r="N108" t="inlineStr">
+        <is>
+          <t>MARK SCOTT</t>
+        </is>
+      </c>
       <c r="O108" t="inlineStr">
         <is>
           <t>P(BCH)</t>
+        </is>
+      </c>
+      <c r="U108" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V108" t="inlineStr">
+        <is>
+          <t>No Document</t>
+        </is>
+      </c>
+      <c r="W108" t="inlineStr">
+        <is>
+          <t>009-552-243</t>
+        </is>
+      </c>
+      <c r="X108" t="inlineStr">
+        <is>
+          <t>Comox Valley Regional District</t>
+        </is>
+      </c>
+      <c r="Y108" t="inlineStr">
+        <is>
+          <t>Rural</t>
         </is>
       </c>
     </row>
@@ -8762,6 +11826,11 @@
           <t>ACTIVE</t>
         </is>
       </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>49 40 06.0 N 125 05 14.0 W</t>
+        </is>
+      </c>
       <c r="I109" t="inlineStr">
         <is>
           <t>BC</t>
@@ -8782,9 +11851,37 @@
           <t>NANAIMO</t>
         </is>
       </c>
+      <c r="N109" t="inlineStr">
+        <is>
+          <t>MARK SCOTT</t>
+        </is>
+      </c>
       <c r="O109" t="inlineStr">
         <is>
           <t>P(BCH)</t>
+        </is>
+      </c>
+      <c r="U109" t="inlineStr">
+        <is>
+          <t>1407485</t>
+        </is>
+      </c>
+      <c r="V109" s="1" t="n">
+        <v>2958465.333333333</v>
+      </c>
+      <c r="W109" t="inlineStr">
+        <is>
+          <t>005-626-722</t>
+        </is>
+      </c>
+      <c r="X109" t="inlineStr">
+        <is>
+          <t>Comox Valley Regional District</t>
+        </is>
+      </c>
+      <c r="Y109" t="inlineStr">
+        <is>
+          <t>Rural</t>
         </is>
       </c>
     </row>
@@ -8820,6 +11917,11 @@
           <t>ACTIVE</t>
         </is>
       </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>49 55 47.4 N 125 30 34.7 W</t>
+        </is>
+      </c>
       <c r="I110" t="inlineStr">
         <is>
           <t>BC</t>
@@ -8840,9 +11942,39 @@
           <t>NANAIMO</t>
         </is>
       </c>
+      <c r="N110" t="inlineStr">
+        <is>
+          <t>JON PRENCIPE</t>
+        </is>
+      </c>
       <c r="O110" t="inlineStr">
         <is>
           <t>P(BCH)</t>
+        </is>
+      </c>
+      <c r="U110" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V110" t="inlineStr">
+        <is>
+          <t>No Document</t>
+        </is>
+      </c>
+      <c r="W110" t="inlineStr">
+        <is>
+          <t>007-691-076</t>
+        </is>
+      </c>
+      <c r="X110" t="inlineStr">
+        <is>
+          <t>Strathcona Regional District</t>
+        </is>
+      </c>
+      <c r="Y110" t="inlineStr">
+        <is>
+          <t>Campbell River, City of</t>
         </is>
       </c>
     </row>
@@ -8878,6 +12010,11 @@
           <t>ACTIVE</t>
         </is>
       </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>58 53 32.6 N 123 19 08.0 W</t>
+        </is>
+      </c>
       <c r="I111" t="inlineStr">
         <is>
           <t>BC</t>
@@ -8898,9 +12035,37 @@
           <t>PRINCE GEORGE</t>
         </is>
       </c>
+      <c r="N111" t="inlineStr">
+        <is>
+          <t>ANDREW CLINE</t>
+        </is>
+      </c>
       <c r="O111" t="inlineStr">
         <is>
           <t>F-P</t>
+        </is>
+      </c>
+      <c r="U111" t="inlineStr">
+        <is>
+          <t>0353696</t>
+        </is>
+      </c>
+      <c r="V111" s="1" t="n">
+        <v>2958465.333333333</v>
+      </c>
+      <c r="W111" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="X111" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Y111" t="inlineStr">
+        <is>
+          <t>Rural</t>
         </is>
       </c>
     </row>
@@ -8936,6 +12101,11 @@
           <t>ACTIVE</t>
         </is>
       </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>52 25 28.4 N 126 31 15.9 W</t>
+        </is>
+      </c>
       <c r="I112" t="inlineStr">
         <is>
           <t>BC</t>
@@ -8956,9 +12126,37 @@
           <t>PRINCE GEORGE</t>
         </is>
       </c>
+      <c r="N112" t="inlineStr">
+        <is>
+          <t>BLAINE BOWE</t>
+        </is>
+      </c>
       <c r="O112" t="inlineStr">
         <is>
           <t>P</t>
+        </is>
+      </c>
+      <c r="U112" t="inlineStr">
+        <is>
+          <t>5402017</t>
+        </is>
+      </c>
+      <c r="V112" s="1" t="n">
+        <v>2958161.333333333</v>
+      </c>
+      <c r="W112" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="X112" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Y112" t="inlineStr">
+        <is>
+          <t>Rural</t>
         </is>
       </c>
     </row>
@@ -8994,6 +12192,11 @@
           <t>ACTIVE</t>
         </is>
       </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>49 02 49.7 N 117 17 39.4 W</t>
+        </is>
+      </c>
       <c r="I113" t="inlineStr">
         <is>
           <t>BC</t>
@@ -9012,6 +12215,11 @@
       <c r="M113" t="inlineStr">
         <is>
           <t>CRANBROOK</t>
+        </is>
+      </c>
+      <c r="N113" t="inlineStr">
+        <is>
+          <t>NICHOLAS CROFTON</t>
         </is>
       </c>
       <c r="O113" t="inlineStr">
@@ -9255,6 +12463,11 @@
           <t>ACTIVE</t>
         </is>
       </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>50 11 50.2 N 125 44 41.3 W</t>
+        </is>
+      </c>
       <c r="I114" t="inlineStr">
         <is>
           <t>BC</t>
@@ -9275,9 +12488,39 @@
           <t>NANAIMO</t>
         </is>
       </c>
+      <c r="N114" t="inlineStr">
+        <is>
+          <t>JON PRENCIPE</t>
+        </is>
+      </c>
       <c r="O114" t="inlineStr">
         <is>
           <t>P(BCH)</t>
+        </is>
+      </c>
+      <c r="U114" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V114" t="inlineStr">
+        <is>
+          <t>No Document</t>
+        </is>
+      </c>
+      <c r="W114" t="inlineStr">
+        <is>
+          <t>10149271</t>
+        </is>
+      </c>
+      <c r="X114" t="inlineStr">
+        <is>
+          <t>Strathcona Regional District</t>
+        </is>
+      </c>
+      <c r="Y114" t="inlineStr">
+        <is>
+          <t>Rural</t>
         </is>
       </c>
     </row>
@@ -9313,6 +12556,11 @@
           <t>ACTIVE</t>
         </is>
       </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>50 18 44.9 N 125 54 27.0 W</t>
+        </is>
+      </c>
       <c r="I115" t="inlineStr">
         <is>
           <t>BC</t>
@@ -9333,9 +12581,39 @@
           <t>NANAIMO</t>
         </is>
       </c>
+      <c r="N115" t="inlineStr">
+        <is>
+          <t>TAYLOR KRUPA</t>
+        </is>
+      </c>
       <c r="O115" t="inlineStr">
         <is>
           <t>F-P</t>
+        </is>
+      </c>
+      <c r="U115" t="inlineStr">
+        <is>
+          <t>SEE BELOW</t>
+        </is>
+      </c>
+      <c r="V115" t="inlineStr">
+        <is>
+          <t>SEE BELOW</t>
+        </is>
+      </c>
+      <c r="W115" t="inlineStr">
+        <is>
+          <t>SEE BELOW</t>
+        </is>
+      </c>
+      <c r="X115" t="inlineStr">
+        <is>
+          <t>Strathcona Regional District</t>
+        </is>
+      </c>
+      <c r="Y115" t="inlineStr">
+        <is>
+          <t>Rural</t>
         </is>
       </c>
     </row>
@@ -9371,6 +12649,11 @@
           <t>INACTIVE</t>
         </is>
       </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>48 34 34.4 N 124 18 40.9 W</t>
+        </is>
+      </c>
       <c r="I116" t="inlineStr">
         <is>
           <t>BC</t>
@@ -9391,9 +12674,39 @@
           <t>NANAIMO</t>
         </is>
       </c>
+      <c r="N116" t="inlineStr">
+        <is>
+          <t>LEIGH SINCLAIR</t>
+        </is>
+      </c>
       <c r="O116" t="inlineStr">
         <is>
           <t>P</t>
+        </is>
+      </c>
+      <c r="U116" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V116" t="inlineStr">
+        <is>
+          <t>Not Specified</t>
+        </is>
+      </c>
+      <c r="W116" t="inlineStr">
+        <is>
+          <t>009-556-354</t>
+        </is>
+      </c>
+      <c r="X116" t="inlineStr">
+        <is>
+          <t>Capital Regional District</t>
+        </is>
+      </c>
+      <c r="Y116" t="inlineStr">
+        <is>
+          <t>Rural</t>
         </is>
       </c>
     </row>
@@ -9429,6 +12742,11 @@
           <t>ACTIVE</t>
         </is>
       </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>49 53 33.0 N 124 58 09.9 W</t>
+        </is>
+      </c>
       <c r="I117" t="inlineStr">
         <is>
           <t>BC</t>
@@ -9449,9 +12767,35 @@
           <t>NANAIMO</t>
         </is>
       </c>
+      <c r="N117" t="inlineStr">
+        <is>
+          <t>MARK SCOTT</t>
+        </is>
+      </c>
       <c r="O117" t="inlineStr">
         <is>
           <t>F</t>
+        </is>
+      </c>
+      <c r="U117" t="n">
+        <v>1404525</v>
+      </c>
+      <c r="V117" s="1" t="n">
+        <v>2958465.333333333</v>
+      </c>
+      <c r="W117" t="inlineStr">
+        <is>
+          <t>SEE BELOW</t>
+        </is>
+      </c>
+      <c r="X117" t="inlineStr">
+        <is>
+          <t>Regional District of Alberni-Clayoquot</t>
+        </is>
+      </c>
+      <c r="Y117" t="inlineStr">
+        <is>
+          <t>Rural</t>
         </is>
       </c>
     </row>
@@ -9487,6 +12831,11 @@
           <t>ACTIVE</t>
         </is>
       </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>50 40 15.9 N 121 58 10.3 W</t>
+        </is>
+      </c>
       <c r="I118" t="inlineStr">
         <is>
           <t>BC</t>
@@ -9507,9 +12856,39 @@
           <t>VERNON</t>
         </is>
       </c>
+      <c r="N118" t="inlineStr">
+        <is>
+          <t>NICOLE JOHNSON</t>
+        </is>
+      </c>
       <c r="O118" t="inlineStr">
         <is>
           <t>P(BCH)</t>
+        </is>
+      </c>
+      <c r="U118" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V118" t="inlineStr">
+        <is>
+          <t>No Document</t>
+        </is>
+      </c>
+      <c r="W118" t="inlineStr">
+        <is>
+          <t>SEE BELOW</t>
+        </is>
+      </c>
+      <c r="X118" t="inlineStr">
+        <is>
+          <t>Squamish-Lillooet Regional District</t>
+        </is>
+      </c>
+      <c r="Y118" t="inlineStr">
+        <is>
+          <t>Lillooet, District of</t>
         </is>
       </c>
     </row>
@@ -9545,6 +12924,11 @@
           <t>ACTIVE</t>
         </is>
       </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>49 29 49.8 N 122 58 08.8 W</t>
+        </is>
+      </c>
       <c r="I119" t="inlineStr">
         <is>
           <t>BC</t>
@@ -9565,9 +12949,39 @@
           <t>RICHMOND</t>
         </is>
       </c>
+      <c r="N119" t="inlineStr">
+        <is>
+          <t>MICHAEL BARTLETT</t>
+        </is>
+      </c>
       <c r="O119" t="inlineStr">
         <is>
           <t>P(OTH)</t>
+        </is>
+      </c>
+      <c r="U119" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V119" t="inlineStr">
+        <is>
+          <t>No Document</t>
+        </is>
+      </c>
+      <c r="W119" t="inlineStr">
+        <is>
+          <t>030-874-297</t>
+        </is>
+      </c>
+      <c r="X119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Metro Vancouver Regional District</t>
+        </is>
+      </c>
+      <c r="Y119" t="inlineStr">
+        <is>
+          <t>Rural</t>
         </is>
       </c>
     </row>
@@ -9603,6 +13017,11 @@
           <t>ACTIVE</t>
         </is>
       </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>51 15 43.9 N 118 56 47.1 W</t>
+        </is>
+      </c>
       <c r="I120" t="inlineStr">
         <is>
           <t>BC</t>
@@ -9623,9 +13042,39 @@
           <t>VERNON</t>
         </is>
       </c>
+      <c r="N120" t="inlineStr">
+        <is>
+          <t>ODIN LEWIS</t>
+        </is>
+      </c>
       <c r="O120" t="inlineStr">
         <is>
           <t>F-P</t>
+        </is>
+      </c>
+      <c r="U120" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V120" t="inlineStr">
+        <is>
+          <t>Not Specified</t>
+        </is>
+      </c>
+      <c r="W120" t="inlineStr">
+        <is>
+          <t>SEE BELOW</t>
+        </is>
+      </c>
+      <c r="X120" t="inlineStr">
+        <is>
+          <t>Columbia Shuswap Regional District</t>
+        </is>
+      </c>
+      <c r="Y120" t="inlineStr">
+        <is>
+          <t>Rural</t>
         </is>
       </c>
     </row>
@@ -9661,6 +13110,11 @@
           <t>ACTIVE</t>
         </is>
       </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>50 20 42.3 N 118 32 52.2 W</t>
+        </is>
+      </c>
       <c r="I121" t="inlineStr">
         <is>
           <t>BC</t>
@@ -9681,9 +13135,37 @@
           <t>VERNON</t>
         </is>
       </c>
+      <c r="N121" t="inlineStr">
+        <is>
+          <t>NICOLE JOHNSON</t>
+        </is>
+      </c>
       <c r="O121" t="inlineStr">
         <is>
           <t>P(BCH)</t>
+        </is>
+      </c>
+      <c r="U121" t="inlineStr">
+        <is>
+          <t>0294806</t>
+        </is>
+      </c>
+      <c r="V121" s="1" t="n">
+        <v>2958465.333333333</v>
+      </c>
+      <c r="W121" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="X121" t="inlineStr">
+        <is>
+          <t>Regional District of North Okanagan</t>
+        </is>
+      </c>
+      <c r="Y121" t="inlineStr">
+        <is>
+          <t>Rural</t>
         </is>
       </c>
     </row>
@@ -9719,6 +13201,11 @@
           <t>ACTIVE</t>
         </is>
       </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>50 18 10.0 N 118 49 07.0 W</t>
+        </is>
+      </c>
       <c r="I122" t="inlineStr">
         <is>
           <t>BC</t>
@@ -9739,9 +13226,39 @@
           <t>VERNON</t>
         </is>
       </c>
+      <c r="N122" t="inlineStr">
+        <is>
+          <t>NICOLE JOHNSON</t>
+        </is>
+      </c>
       <c r="O122" t="inlineStr">
         <is>
           <t>P(BCH)</t>
+        </is>
+      </c>
+      <c r="U122" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V122" t="inlineStr">
+        <is>
+          <t>No Document</t>
+        </is>
+      </c>
+      <c r="W122" t="inlineStr">
+        <is>
+          <t>SEE BELOW</t>
+        </is>
+      </c>
+      <c r="X122" t="inlineStr">
+        <is>
+          <t>Regional District of North Okanagan</t>
+        </is>
+      </c>
+      <c r="Y122" t="inlineStr">
+        <is>
+          <t>Rural</t>
         </is>
       </c>
     </row>
@@ -9777,6 +13294,11 @@
           <t>INACTIVE</t>
         </is>
       </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>57 14 17.6 N 122 41 29.3 W</t>
+        </is>
+      </c>
       <c r="I123" t="inlineStr">
         <is>
           <t>BC</t>
@@ -9797,9 +13319,37 @@
           <t>PRINCE GEORGE</t>
         </is>
       </c>
+      <c r="N123" t="inlineStr">
+        <is>
+          <t>ANDREW CLINE</t>
+        </is>
+      </c>
       <c r="O123" t="inlineStr">
         <is>
           <t>F-P</t>
+        </is>
+      </c>
+      <c r="U123" t="inlineStr">
+        <is>
+          <t>0272163</t>
+        </is>
+      </c>
+      <c r="V123" s="1" t="n">
+        <v>2958465.333333333</v>
+      </c>
+      <c r="W123" t="inlineStr">
+        <is>
+          <t>SEE BELOW</t>
+        </is>
+      </c>
+      <c r="X123" t="inlineStr">
+        <is>
+          <t>Peace River Regional District</t>
+        </is>
+      </c>
+      <c r="Y123" t="inlineStr">
+        <is>
+          <t>Rural</t>
         </is>
       </c>
     </row>
@@ -9835,6 +13385,11 @@
           <t>ACTIVE</t>
         </is>
       </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>49 05 38.7 N 120 40 21.1 W</t>
+        </is>
+      </c>
       <c r="I124" t="inlineStr">
         <is>
           <t>BC</t>
@@ -9853,6 +13408,11 @@
       <c r="M124" t="inlineStr">
         <is>
           <t>VERNON</t>
+        </is>
+      </c>
+      <c r="N124" t="inlineStr">
+        <is>
+          <t>SHAYNE DOERKSEN</t>
         </is>
       </c>
       <c r="O124" t="inlineStr">
@@ -10052,6 +13612,11 @@
           <t>ACTIVE</t>
         </is>
       </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>49 27 34.9 N 120 30 12.7 W</t>
+        </is>
+      </c>
       <c r="I125" t="inlineStr">
         <is>
           <t>BC</t>
@@ -10072,9 +13637,39 @@
           <t>VERNON</t>
         </is>
       </c>
+      <c r="N125" t="inlineStr">
+        <is>
+          <t>SHAYNE DOERKSEN</t>
+        </is>
+      </c>
       <c r="O125" t="inlineStr">
         <is>
           <t>F-P-P(BCH)</t>
+        </is>
+      </c>
+      <c r="U125" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V125" t="inlineStr">
+        <is>
+          <t>No Document</t>
+        </is>
+      </c>
+      <c r="W125" t="inlineStr">
+        <is>
+          <t>SEE BELOW</t>
+        </is>
+      </c>
+      <c r="X125" t="inlineStr">
+        <is>
+          <t>Regional District of Okanagan-Similkameen</t>
+        </is>
+      </c>
+      <c r="Y125" t="inlineStr">
+        <is>
+          <t>Rural</t>
         </is>
       </c>
     </row>
@@ -10110,6 +13705,11 @@
           <t>ACTIVE</t>
         </is>
       </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>54 37 54.9 N 128 25 49.9 W</t>
+        </is>
+      </c>
       <c r="I126" t="inlineStr">
         <is>
           <t>BC</t>
@@ -10130,9 +13730,39 @@
           <t>TERRACE</t>
         </is>
       </c>
+      <c r="N126" t="inlineStr">
+        <is>
+          <t>MIKE LEGGAT</t>
+        </is>
+      </c>
       <c r="O126" t="inlineStr">
         <is>
           <t>MOTI</t>
+        </is>
+      </c>
+      <c r="U126" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V126" t="inlineStr">
+        <is>
+          <t>No Document</t>
+        </is>
+      </c>
+      <c r="W126" t="inlineStr">
+        <is>
+          <t>017-056-161</t>
+        </is>
+      </c>
+      <c r="X126" t="inlineStr">
+        <is>
+          <t>Stikine Region</t>
+        </is>
+      </c>
+      <c r="Y126" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rural </t>
         </is>
       </c>
     </row>
@@ -10168,6 +13798,11 @@
           <t>ACTIVE</t>
         </is>
       </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>49 04 18.1 N 121 41 59.0 W</t>
+        </is>
+      </c>
       <c r="I127" t="inlineStr">
         <is>
           <t>BC</t>
@@ -10188,9 +13823,37 @@
           <t>RICHMOND</t>
         </is>
       </c>
+      <c r="N127" t="inlineStr">
+        <is>
+          <t>SAM MACKAY</t>
+        </is>
+      </c>
       <c r="O127" t="inlineStr">
         <is>
           <t>F-P</t>
+        </is>
+      </c>
+      <c r="U127" t="n">
+        <v>983459</v>
+      </c>
+      <c r="V127" t="inlineStr">
+        <is>
+          <t>No Expiry</t>
+        </is>
+      </c>
+      <c r="W127" t="inlineStr">
+        <is>
+          <t>3917961</t>
+        </is>
+      </c>
+      <c r="X127" t="inlineStr">
+        <is>
+          <t>Fraser Valley Regional District</t>
+        </is>
+      </c>
+      <c r="Y127" t="inlineStr">
+        <is>
+          <t>Rural</t>
         </is>
       </c>
     </row>
@@ -10226,6 +13889,11 @@
           <t>INACTIVE</t>
         </is>
       </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>59 33 12.0 N 126 28 50.0 W</t>
+        </is>
+      </c>
       <c r="I128" t="inlineStr">
         <is>
           <t>BC</t>
@@ -10246,9 +13914,39 @@
           <t>WHITEHORSE</t>
         </is>
       </c>
+      <c r="N128" t="inlineStr">
+        <is>
+          <t>BENJAMIN LAMBERT</t>
+        </is>
+      </c>
       <c r="O128" t="inlineStr">
         <is>
           <t>F-P</t>
+        </is>
+      </c>
+      <c r="U128" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V128" t="inlineStr">
+        <is>
+          <t>No Document</t>
+        </is>
+      </c>
+      <c r="W128" t="inlineStr">
+        <is>
+          <t>1826960</t>
+        </is>
+      </c>
+      <c r="X128" t="inlineStr">
+        <is>
+          <t>Northern Rockies Regional Municipality</t>
+        </is>
+      </c>
+      <c r="Y128" t="inlineStr">
+        <is>
+          <t>Northern Rockies Regional Municipality</t>
         </is>
       </c>
     </row>
@@ -10284,6 +13982,11 @@
           <t>ACTIVE</t>
         </is>
       </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>50 45 47.1 N 119 44 35.2 W</t>
+        </is>
+      </c>
       <c r="I129" t="inlineStr">
         <is>
           <t>BC</t>
@@ -10304,9 +14007,37 @@
           <t>VERNON</t>
         </is>
       </c>
+      <c r="N129" t="inlineStr">
+        <is>
+          <t>ODIN LEWIS</t>
+        </is>
+      </c>
       <c r="O129" t="inlineStr">
         <is>
           <t>F-P-P(OTH)</t>
+        </is>
+      </c>
+      <c r="U129" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V129" s="1" t="n">
+        <v>48092</v>
+      </c>
+      <c r="W129" t="inlineStr">
+        <is>
+          <t>SEE BELOW</t>
+        </is>
+      </c>
+      <c r="X129" t="inlineStr">
+        <is>
+          <t>Thompson-Nicola Regional District</t>
+        </is>
+      </c>
+      <c r="Y129" t="inlineStr">
+        <is>
+          <t>Rural</t>
         </is>
       </c>
     </row>
@@ -10342,6 +14073,11 @@
           <t>ACTIVE</t>
         </is>
       </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>49 47 42.0 N 123 12 11.3 W</t>
+        </is>
+      </c>
       <c r="I130" t="inlineStr">
         <is>
           <t>BC</t>
@@ -10362,9 +14098,39 @@
           <t>RICHMOND</t>
         </is>
       </c>
+      <c r="N130" t="inlineStr">
+        <is>
+          <t>JOANNE LEE</t>
+        </is>
+      </c>
       <c r="O130" t="inlineStr">
         <is>
           <t>P-P(BCH)</t>
+        </is>
+      </c>
+      <c r="U130" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V130" t="inlineStr">
+        <is>
+          <t>No Document</t>
+        </is>
+      </c>
+      <c r="W130" t="inlineStr">
+        <is>
+          <t>SEE BELOW</t>
+        </is>
+      </c>
+      <c r="X130" t="inlineStr">
+        <is>
+          <t>Squamish-Lillooet Regional District</t>
+        </is>
+      </c>
+      <c r="Y130" t="inlineStr">
+        <is>
+          <t>Rural</t>
         </is>
       </c>
     </row>
@@ -10453,6 +14219,11 @@
           <t>INACTIVE</t>
         </is>
       </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>49 33 22.2 N 122 19 23.0 W</t>
+        </is>
+      </c>
       <c r="I132" t="inlineStr">
         <is>
           <t>BC</t>
@@ -10473,9 +14244,35 @@
           <t>RICHMOND</t>
         </is>
       </c>
+      <c r="N132" t="inlineStr">
+        <is>
+          <t>SAM MACKAY</t>
+        </is>
+      </c>
       <c r="O132" t="inlineStr">
         <is>
           <t>F-P-P(BCH)</t>
+        </is>
+      </c>
+      <c r="U132" t="n">
+        <v>2411655</v>
+      </c>
+      <c r="V132" s="1" t="n">
+        <v>53328</v>
+      </c>
+      <c r="W132" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="X132" t="inlineStr">
+        <is>
+          <t>New Westminster District</t>
+        </is>
+      </c>
+      <c r="Y132" t="inlineStr">
+        <is>
+          <t>Rural</t>
         </is>
       </c>
     </row>
@@ -10511,6 +14308,11 @@
           <t>INACTIVE</t>
         </is>
       </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>57 54 09.4 N 131 08 45.2 W</t>
+        </is>
+      </c>
       <c r="I133" t="inlineStr">
         <is>
           <t>BC</t>
@@ -10531,9 +14333,39 @@
           <t>TERRACE</t>
         </is>
       </c>
+      <c r="N133" t="inlineStr">
+        <is>
+          <t>MIKAEL CALLAWAY</t>
+        </is>
+      </c>
       <c r="O133" t="inlineStr">
         <is>
           <t>F-P</t>
+        </is>
+      </c>
+      <c r="U133" t="inlineStr">
+        <is>
+          <t>SEE BELOW</t>
+        </is>
+      </c>
+      <c r="V133" t="inlineStr">
+        <is>
+          <t>SEE BELOW</t>
+        </is>
+      </c>
+      <c r="W133" t="inlineStr">
+        <is>
+          <t>SEE BELOW</t>
+        </is>
+      </c>
+      <c r="X133" t="inlineStr">
+        <is>
+          <t>Regional District of Kitimat-Stikine</t>
+        </is>
+      </c>
+      <c r="Y133" t="inlineStr">
+        <is>
+          <t>Rural</t>
         </is>
       </c>
     </row>
@@ -10569,6 +14401,11 @@
           <t>ACTIVE</t>
         </is>
       </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>55 32 31.8 N 121 37 39.2 W</t>
+        </is>
+      </c>
       <c r="I134" t="inlineStr">
         <is>
           <t>BC</t>
@@ -10589,9 +14426,39 @@
           <t>PRINCE GEORGE</t>
         </is>
       </c>
+      <c r="N134" t="inlineStr">
+        <is>
+          <t>KYLE WOODS</t>
+        </is>
+      </c>
       <c r="O134" t="inlineStr">
         <is>
           <t>F</t>
+        </is>
+      </c>
+      <c r="U134" t="inlineStr">
+        <is>
+          <t>SEE BELOW</t>
+        </is>
+      </c>
+      <c r="V134" t="inlineStr">
+        <is>
+          <t>SEE BELOW</t>
+        </is>
+      </c>
+      <c r="W134" t="inlineStr">
+        <is>
+          <t>SEE BELOW</t>
+        </is>
+      </c>
+      <c r="X134" t="inlineStr">
+        <is>
+          <t>Peace River Regional District</t>
+        </is>
+      </c>
+      <c r="Y134" t="inlineStr">
+        <is>
+          <t>Rural</t>
         </is>
       </c>
     </row>
@@ -10627,6 +14494,11 @@
           <t>INACTIVE</t>
         </is>
       </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>56 06 33.6 N 129 28 38.6 W</t>
+        </is>
+      </c>
       <c r="I135" t="inlineStr">
         <is>
           <t>BC</t>
@@ -10647,9 +14519,35 @@
           <t>TERRACE</t>
         </is>
       </c>
+      <c r="N135" t="inlineStr">
+        <is>
+          <t>MIKAEL CALLAWAY</t>
+        </is>
+      </c>
       <c r="O135" t="inlineStr">
         <is>
           <t>F-P</t>
+        </is>
+      </c>
+      <c r="U135" t="n">
+        <v>276268</v>
+      </c>
+      <c r="V135" s="1" t="n">
+        <v>48024.80625</v>
+      </c>
+      <c r="W135" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="X135" t="inlineStr">
+        <is>
+          <t>Regional District of Kitimat-Stikine</t>
+        </is>
+      </c>
+      <c r="Y135" t="inlineStr">
+        <is>
+          <t>Rural</t>
         </is>
       </c>
     </row>
@@ -10685,6 +14583,11 @@
           <t>ACTIVE</t>
         </is>
       </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>51 22 44.4 N 123 37 52.4 W</t>
+        </is>
+      </c>
       <c r="I136" t="inlineStr">
         <is>
           <t>BC</t>
@@ -10705,9 +14608,35 @@
           <t>PRINCE GEORGE</t>
         </is>
       </c>
+      <c r="N136" t="inlineStr">
+        <is>
+          <t>BLAINE BOWE</t>
+        </is>
+      </c>
       <c r="O136" t="inlineStr">
         <is>
           <t>F</t>
+        </is>
+      </c>
+      <c r="U136" t="n">
+        <v>5408039</v>
+      </c>
+      <c r="V136" s="1" t="n">
+        <v>47202</v>
+      </c>
+      <c r="W136" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="X136" t="inlineStr">
+        <is>
+          <t>Cariboo Regional District</t>
+        </is>
+      </c>
+      <c r="Y136" t="inlineStr">
+        <is>
+          <t>Rural</t>
         </is>
       </c>
     </row>
@@ -10743,6 +14672,11 @@
           <t>ACTIVE</t>
         </is>
       </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>54 36 26.5 N 127 29 49.9 W</t>
+        </is>
+      </c>
       <c r="I137" t="inlineStr">
         <is>
           <t>BC</t>
@@ -10763,9 +14697,35 @@
           <t>TERRACE</t>
         </is>
       </c>
+      <c r="N137" t="inlineStr">
+        <is>
+          <t>BRIAN LAMBERT</t>
+        </is>
+      </c>
       <c r="O137" t="inlineStr">
         <is>
           <t>F</t>
+        </is>
+      </c>
+      <c r="U137" t="n">
+        <v>6409174</v>
+      </c>
+      <c r="V137" s="1" t="n">
+        <v>48333</v>
+      </c>
+      <c r="W137" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="X137" t="inlineStr">
+        <is>
+          <t>Bulkley-Nechako</t>
+        </is>
+      </c>
+      <c r="Y137" t="inlineStr">
+        <is>
+          <t>Rural</t>
         </is>
       </c>
     </row>
@@ -10801,6 +14761,11 @@
           <t>ACTIVE</t>
         </is>
       </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>50 21 16.6 N 121 23 37.1 W</t>
+        </is>
+      </c>
       <c r="I138" t="inlineStr">
         <is>
           <t>BC</t>
@@ -10821,9 +14786,39 @@
           <t>VERNON</t>
         </is>
       </c>
+      <c r="N138" t="inlineStr">
+        <is>
+          <t>TOBIN ROBERTS</t>
+        </is>
+      </c>
       <c r="O138" t="inlineStr">
         <is>
           <t>F-P</t>
+        </is>
+      </c>
+      <c r="U138" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V138" t="inlineStr">
+        <is>
+          <t>No Document</t>
+        </is>
+      </c>
+      <c r="W138" t="inlineStr">
+        <is>
+          <t>SEE BELOW</t>
+        </is>
+      </c>
+      <c r="X138" t="inlineStr">
+        <is>
+          <t>Thompson-Nicola Regional District</t>
+        </is>
+      </c>
+      <c r="Y138" t="inlineStr">
+        <is>
+          <t>Rural</t>
         </is>
       </c>
     </row>
@@ -10859,6 +14854,11 @@
           <t>ACTIVE</t>
         </is>
       </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>58 51 17.9 N 125 22 57.4 W</t>
+        </is>
+      </c>
       <c r="I139" t="inlineStr">
         <is>
           <t>BC</t>
@@ -10877,6 +14877,11 @@
       <c r="M139" t="inlineStr">
         <is>
           <t>WHITEHORSE</t>
+        </is>
+      </c>
+      <c r="N139" t="inlineStr">
+        <is>
+          <t>BENJAMIN LAMBERT</t>
         </is>
       </c>
       <c r="O139" t="inlineStr">
@@ -10911,6 +14916,11 @@
         </is>
       </c>
       <c r="V139" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W139" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -10967,6 +14977,11 @@
           <t>ACTIVE</t>
         </is>
       </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>49 33 55.3 N 119 03 07.0 W</t>
+        </is>
+      </c>
       <c r="I140" t="inlineStr">
         <is>
           <t>BC</t>
@@ -10987,9 +15002,37 @@
           <t>VERNON</t>
         </is>
       </c>
+      <c r="N140" t="inlineStr">
+        <is>
+          <t>EMILY HUXTER</t>
+        </is>
+      </c>
       <c r="O140" t="inlineStr">
         <is>
           <t>F-P</t>
+        </is>
+      </c>
+      <c r="U140" t="inlineStr">
+        <is>
+          <t>4401166</t>
+        </is>
+      </c>
+      <c r="V140" s="1" t="n">
+        <v>2958465.333333333</v>
+      </c>
+      <c r="W140" t="inlineStr">
+        <is>
+          <t>3709250</t>
+        </is>
+      </c>
+      <c r="X140" t="inlineStr">
+        <is>
+          <t>Regional District of Kootenay Boundary</t>
+        </is>
+      </c>
+      <c r="Y140" t="inlineStr">
+        <is>
+          <t>Rural</t>
         </is>
       </c>
     </row>
@@ -11025,6 +15068,11 @@
           <t>ACTIVE</t>
         </is>
       </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>59 20 09.5 N 125 56 24.9 W</t>
+        </is>
+      </c>
       <c r="I141" t="inlineStr">
         <is>
           <t>BC</t>
@@ -11045,9 +15093,39 @@
           <t>WHITEHORSE</t>
         </is>
       </c>
+      <c r="N141" t="inlineStr">
+        <is>
+          <t>BENJAMIN LAMBERT</t>
+        </is>
+      </c>
       <c r="O141" t="inlineStr">
         <is>
           <t>F-P</t>
+        </is>
+      </c>
+      <c r="U141" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V141" t="inlineStr">
+        <is>
+          <t>No Document</t>
+        </is>
+      </c>
+      <c r="W141" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="X141" t="inlineStr">
+        <is>
+          <t>Northern Rockies Regional Municipality</t>
+        </is>
+      </c>
+      <c r="Y141" t="inlineStr">
+        <is>
+          <t>Rural</t>
         </is>
       </c>
     </row>
@@ -11083,6 +15161,11 @@
           <t>ACTIVE</t>
         </is>
       </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>49 42 21.1 N 125 00 41.3 W</t>
+        </is>
+      </c>
       <c r="I142" t="inlineStr">
         <is>
           <t>BC</t>
@@ -11103,9 +15186,39 @@
           <t>NANAIMO</t>
         </is>
       </c>
+      <c r="N142" t="inlineStr">
+        <is>
+          <t>MARK SCOTT</t>
+        </is>
+      </c>
       <c r="O142" t="inlineStr">
         <is>
           <t>P(BCH)</t>
+        </is>
+      </c>
+      <c r="U142" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V142" t="inlineStr">
+        <is>
+          <t>SEE BELOW</t>
+        </is>
+      </c>
+      <c r="W142" t="inlineStr">
+        <is>
+          <t>SEE BELOW</t>
+        </is>
+      </c>
+      <c r="X142" t="inlineStr">
+        <is>
+          <t>Comox Valley Regional District</t>
+        </is>
+      </c>
+      <c r="Y142" t="inlineStr">
+        <is>
+          <t>SEE BELOW</t>
         </is>
       </c>
     </row>
@@ -11141,6 +15254,11 @@
           <t>ACTIVE</t>
         </is>
       </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>49 27 56.4 N 120 58 44.0 W</t>
+        </is>
+      </c>
       <c r="I143" t="inlineStr">
         <is>
           <t>BC</t>
@@ -11161,9 +15279,39 @@
           <t>RICHMOND</t>
         </is>
       </c>
+      <c r="N143" t="inlineStr">
+        <is>
+          <t>SHAYNE DOERKSEN</t>
+        </is>
+      </c>
       <c r="O143" t="inlineStr">
         <is>
           <t>F-P</t>
+        </is>
+      </c>
+      <c r="U143" t="inlineStr">
+        <is>
+          <t>248307</t>
+        </is>
+      </c>
+      <c r="V143" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="W143" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="X143" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Y143" t="inlineStr">
+        <is>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -11199,6 +15347,11 @@
           <t>INACTIVE</t>
         </is>
       </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>59 56 52.0 N 134 19 57.0 W</t>
+        </is>
+      </c>
       <c r="I144" t="inlineStr">
         <is>
           <t>BC</t>
@@ -11219,9 +15372,37 @@
           <t>WHITEHORSE</t>
         </is>
       </c>
+      <c r="N144" t="inlineStr">
+        <is>
+          <t>PAT MALTAIS</t>
+        </is>
+      </c>
       <c r="O144" t="inlineStr">
         <is>
           <t>F</t>
+        </is>
+      </c>
+      <c r="U144" t="inlineStr">
+        <is>
+          <t>0298904</t>
+        </is>
+      </c>
+      <c r="V144" s="1" t="n">
+        <v>48024.81666666667</v>
+      </c>
+      <c r="W144" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="X144" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Y144" t="inlineStr">
+        <is>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -11257,6 +15438,11 @@
           <t>INACTIVE</t>
         </is>
       </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>58 04 20.0 N 130 49 35.2 W</t>
+        </is>
+      </c>
       <c r="I145" t="inlineStr">
         <is>
           <t>BC</t>
@@ -11277,9 +15463,35 @@
           <t>TERRACE</t>
         </is>
       </c>
+      <c r="N145" t="inlineStr">
+        <is>
+          <t>MIKAEL CALLAWAY</t>
+        </is>
+      </c>
       <c r="O145" t="inlineStr">
         <is>
           <t>F-P</t>
+        </is>
+      </c>
+      <c r="U145" t="n">
+        <v>306116</v>
+      </c>
+      <c r="V145" s="1" t="n">
+        <v>48024.875</v>
+      </c>
+      <c r="W145" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="X145" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Y145" t="inlineStr">
+        <is>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -11315,6 +15527,11 @@
           <t>ACTIVE</t>
         </is>
       </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>49 14 57.4 N 119 19 17.0 W</t>
+        </is>
+      </c>
       <c r="I146" t="inlineStr">
         <is>
           <t>BC</t>
@@ -11335,9 +15552,37 @@
           <t>VERNON</t>
         </is>
       </c>
+      <c r="N146" t="inlineStr">
+        <is>
+          <t>EMILY HUXTER</t>
+        </is>
+      </c>
       <c r="O146" t="inlineStr">
         <is>
           <t>F-P</t>
+        </is>
+      </c>
+      <c r="U146" t="inlineStr">
+        <is>
+          <t>3413583</t>
+        </is>
+      </c>
+      <c r="V146" s="1" t="n">
+        <v>55224.375</v>
+      </c>
+      <c r="W146" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="X146" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Y146" t="inlineStr">
+        <is>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -11373,6 +15618,11 @@
           <t>ACTIVE</t>
         </is>
       </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>49 42 10.5 N 119 05 32.9 W</t>
+        </is>
+      </c>
       <c r="I147" t="inlineStr">
         <is>
           <t>BC</t>
@@ -11393,9 +15643,39 @@
           <t>VERNON</t>
         </is>
       </c>
+      <c r="N147" t="inlineStr">
+        <is>
+          <t>EMILY HUXTER</t>
+        </is>
+      </c>
       <c r="O147" t="inlineStr">
         <is>
           <t>F-P</t>
+        </is>
+      </c>
+      <c r="U147" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V147" t="inlineStr">
+        <is>
+          <t>No Document</t>
+        </is>
+      </c>
+      <c r="W147" t="inlineStr">
+        <is>
+          <t>4545370</t>
+        </is>
+      </c>
+      <c r="X147" t="inlineStr">
+        <is>
+          <t>Regional District of Kootenay Boundary</t>
+        </is>
+      </c>
+      <c r="Y147" t="inlineStr">
+        <is>
+          <t>Rural</t>
         </is>
       </c>
     </row>
@@ -11431,6 +15711,11 @@
           <t>ACTIVE</t>
         </is>
       </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>53 18 23.1 N 122 53 30.5 W</t>
+        </is>
+      </c>
       <c r="I148" t="inlineStr">
         <is>
           <t>BC</t>
@@ -11451,9 +15736,37 @@
           <t>PRINCE GEORGE</t>
         </is>
       </c>
+      <c r="N148" t="inlineStr">
+        <is>
+          <t>KIRSTIN FAIRWEATHER</t>
+        </is>
+      </c>
       <c r="O148" t="inlineStr">
         <is>
           <t>F-P</t>
+        </is>
+      </c>
+      <c r="U148" t="inlineStr">
+        <is>
+          <t>0279700</t>
+        </is>
+      </c>
+      <c r="V148" s="1" t="n">
+        <v>2958115.333333333</v>
+      </c>
+      <c r="W148" t="inlineStr">
+        <is>
+          <t>5403140</t>
+        </is>
+      </c>
+      <c r="X148" t="inlineStr">
+        <is>
+          <t>Regional District of Fraser-Fort George</t>
+        </is>
+      </c>
+      <c r="Y148" t="inlineStr">
+        <is>
+          <t>Rural</t>
         </is>
       </c>
     </row>
@@ -11489,6 +15802,11 @@
           <t>ACTIVE</t>
         </is>
       </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>53 36 50.0 N 132 12 35.0 W</t>
+        </is>
+      </c>
       <c r="I149" t="inlineStr">
         <is>
           <t>BC</t>
@@ -11509,9 +15827,39 @@
           <t>RICHMOND</t>
         </is>
       </c>
+      <c r="N149" t="inlineStr">
+        <is>
+          <t>JOANNE LEE</t>
+        </is>
+      </c>
       <c r="O149" t="inlineStr">
         <is>
           <t>F-P</t>
+        </is>
+      </c>
+      <c r="U149" t="inlineStr">
+        <is>
+          <t>248282</t>
+        </is>
+      </c>
+      <c r="V149" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="W149" t="inlineStr">
+        <is>
+          <t>2937720</t>
+        </is>
+      </c>
+      <c r="X149" t="inlineStr">
+        <is>
+          <t>North Coast Regional District</t>
+        </is>
+      </c>
+      <c r="Y149" t="inlineStr">
+        <is>
+          <t>Rural</t>
         </is>
       </c>
     </row>
@@ -11547,6 +15895,11 @@
           <t>ACTIVE</t>
         </is>
       </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>50 54 45.4 N 122 14 21.5 W</t>
+        </is>
+      </c>
       <c r="I150" t="inlineStr">
         <is>
           <t>BC</t>
@@ -11567,9 +15920,39 @@
           <t>VERNON</t>
         </is>
       </c>
+      <c r="N150" t="inlineStr">
+        <is>
+          <t>NICOLE JOHNSON</t>
+        </is>
+      </c>
       <c r="O150" t="inlineStr">
         <is>
           <t>F-P-P(BCH)</t>
+        </is>
+      </c>
+      <c r="U150" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V150" t="inlineStr">
+        <is>
+          <t>No Document</t>
+        </is>
+      </c>
+      <c r="W150" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="X150" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Y150" t="inlineStr">
+        <is>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -11605,6 +15988,11 @@
           <t>ACTIVE</t>
         </is>
       </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>50 00 44.9 N 126 50 36.2 W</t>
+        </is>
+      </c>
       <c r="I151" t="inlineStr">
         <is>
           <t>BC</t>
@@ -11625,9 +16013,37 @@
           <t>NANAIMO</t>
         </is>
       </c>
+      <c r="N151" t="inlineStr">
+        <is>
+          <t>TAYLOR KRUPA</t>
+        </is>
+      </c>
       <c r="O151" t="inlineStr">
         <is>
           <t>F-P</t>
+        </is>
+      </c>
+      <c r="U151" t="inlineStr">
+        <is>
+          <t>1404524</t>
+        </is>
+      </c>
+      <c r="V151" s="1" t="n">
+        <v>2958465.333333333</v>
+      </c>
+      <c r="W151" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="X151" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Y151" t="inlineStr">
+        <is>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -11663,6 +16079,11 @@
           <t>ACTIVE</t>
         </is>
       </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>54 29 37.0 N 128 19 28.7 W</t>
+        </is>
+      </c>
       <c r="I152" t="inlineStr">
         <is>
           <t>BC</t>
@@ -11683,9 +16104,39 @@
           <t>TERRACE</t>
         </is>
       </c>
+      <c r="N152" t="inlineStr">
+        <is>
+          <t>BRIAN LAMBERT</t>
+        </is>
+      </c>
       <c r="O152" t="inlineStr">
         <is>
           <t>P</t>
+        </is>
+      </c>
+      <c r="U152" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V152" t="inlineStr">
+        <is>
+          <t>No Document</t>
+        </is>
+      </c>
+      <c r="W152" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="X152" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Y152" t="inlineStr">
+        <is>
+          <t>N/A</t>
         </is>
       </c>
     </row>
